--- a/data/normalized_data/training_set_sample.xlsx
+++ b/data/normalized_data/training_set_sample.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -29,7 +28,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,25 +51,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -429,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,140 +435,145 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Titel</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Plaats van publicatie</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Publicatie</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Publicatietype</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Lengte</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Sectie</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Lengte.1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Landen</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Auteur</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Agg-copyright</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Cite</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Bedrijf</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Titel.1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Hlead</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Publicatie.1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Publicatietype.1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Pub-copyright</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Weergeven</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Termen</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Hyperlink</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Publicatie_unique</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>YearMonth</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Article_ID</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>In genderkwesties wacht de terf verwensingen, intimidatie en bedreiging</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>6.000 voetbalvelden: zie je het voor je?</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44382</v>
+        <v>44741</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -589,11 +591,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>599</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>470</v>
+      </c>
+      <c r="G2" t="n">
+        <v/>
+      </c>
       <c r="H2" t="n">
-        <v>599</v>
+        <v>470</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -602,20 +606,26 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jan Kuitenbrouwer</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+          <t>Rogier Goetze</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>In genderkwesties wacht de terf verwensingen, intimidatie en bedreiging</t>
+          <t>6.000 voetbalvelden: zie je het voor je?</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>In genderkwesties wacht de terf verwensingen, intimidatie en bedreiging Meepraten voor beginners: Jan Kuitenbrouwer schrijft het woordenboek van de verbale burgeroorlog die we het ‘openbaar debat’ noemen. Deze week: Terf. Laurel Hubbard is gewichtheffer in de categorie superzwaargewicht voor vrouwen, en werd onlangs geselecteerd voor de Olympische Spelen in Japan . Hubbard is een —&gt; transvrouw. Zij is nu 43, tot haar 35ste leefde zij als man. Mannen zijn gemiddeld sterker dan vrouwen, dankzij grotere spieren en dichtere botten. Hubbard heeft dus een fysiek voordeel op ‘gewone’ vrouwelijke gewichtheffers. Het Olympisch Comité heeft deelname van atleten in hun transcategorie makkelijker gemaakt: je moet minstens vier jaar hetzelfde gender behouden en niet te veel testosteron in je bloed hebben. Dat laatste geldt ook voor ‘gewone’, —&gt; cisgender vrouwen, zoals twee jonge atletes uit Namibië, Christine Mboma en Beatrice Masilingi, vorige week ondervonden, toen zij werden uitgesloten van de 400 meter hardlopen in Tokio.</t>
+          <t>6.000 voetbalvelden: zie je het voor je? Volkskrantlezers vinden veel. En misschien wel het meest vinden ze iets van ons taalgebruik. Terecht? Als het om zwembaden en voetbalvelden gaat wel. ‘Op de middelbare school is ons het SI-eenhedenstelsel geleerd’, schrijft Chris Wijenberg, ‘maar in de krant duiken af en toe andere eenheden op: zwembaden i.p.v. m3, voetbalvelden i.p.v. m2 of ha, usb-sticks i.p.v. Tbyte.’ Voor het taalloket net iets buiten de comfortabele zone, maar we snappen het probleem. Vooral die voetbalvelden kom je vaak tegen. Omdat lezers misschien geen goed beeld hebben bij een hectare, hebben journalisten soms de neiging zo’n eenheid te vervangen door iets ‘zichtbaars’. Het probleem is alleen: een, twee of desnoods vijf voetbalvelden kun je nog wel voor je zien, maar ‘een bos van 6.000 voetbalvelden’? ‘Ik kan me daar totaal niets bij voorstellen’, schreef Peter Wijnveen vorig jaar al. ‘Als niet-voetballiefhebber weet ik wel dat een voetbalveld bij grove benadering een halve hectare is. Pas dáár kan ik wat mee.’ Als lezers weer terug moeten rekenen van voetbalvelden naar hectaren, werkt het hulpje niet.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -628,18 +638,26 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:632S-B0T1-JBHV-K3FD-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:65TB-CTR1-JBHV-K0KD-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 1-200.XLSX</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -647,18 +665,23 @@
           <t>Volkskrant</t>
         </is>
       </c>
-      <c r="Y2" t="n">
-        <v>1150</v>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
+        <v>3255</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Gay en christen zijn. Kan dat gewoon?</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>VVD en CDA hechten nu toch aan deskundigenverklaring bij verandering geslacht in paspoort</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43793</v>
+        <v>44832</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,7 +690,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -676,11 +699,15 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>193</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>626</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ten Eerste;Blz. 2</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>193</v>
+        <v>626</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -689,63 +716,82 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Carmen Kuik</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+          <t>REMCO MEIJER</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Gay en christen zijn. Kan dat gewoon?</t>
+          <t>VVD en CDA hechten nu toch aan deskundigenverklaring bij verandering geslacht in paspoort</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Gay en christen zijn. Kan dat gewoon? Gay en christen zijn, kan dat gewoon? En wat doe je tegen homodiscriminatie op de werkvloer? Tijdens het Regenboogfestival in Zwolle gaat het over deze én andere vragen.</t>
+          <t>VVD en CDA hechten nu toch aan deskundigenverklaring bij verandering geslacht in paspoort VVD en CDA hebben stevige bedenkingen bij versoepeling van de Transgenderwet, waarover de Tweede Kamer deze week debatteert. De aarzelingen van de coalitiepartijen gelden vooral het schrappen van een deskundigenverklaring bij geslachtsverandering in de geboorteakte. 'Wij zijn niet overtuigd dat dit voorstel een verbetering is van de huidige wet', zei CDA-Kamerlid Raymond Knops dinsdag. Ook VVD-Kamerlid Ulysse Ellian liet weten 'geen eindoordeel' te kunnen vellen. 'Het is een belangrijk en gevoelig onderwerp, waarbij wij nog een groot aantal vragen hebben.' Daarmee is het hoogst onzeker of het wetsvoorstel het haalt. Eerder al lieten PVV, JA21, ChristenUnie, SGP, groep-Van Haga en BBB weten tegen de vorig jaar mei door de toenmalige bewindslieden Sander Dekker (Rechtsbescherming, VVD) en Ingrid van Engelshoven (Emancipatie, D66) ingediende wijziging van de Transgenderwet uit 2014 te zijn.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5XKM-RYY1-JBHV-K1J3-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:66GK-T4V1-DYRY-X1F5-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>AD 2019-2021 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 1-200.XLSX</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Algemeen Dagblad</t>
-        </is>
-      </c>
-      <c r="Y3" t="n">
-        <v>516</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>3311</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Tanja Jess: ’Er is zoveel onbegrip als je kind transgender is’ VROUW Glossy</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Review | Hogwarts legacy: wat zou J.K. Rowling vinden van transgender tovenaar?</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44882</v>
+        <v>44966</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -763,15 +809,15 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1047</v>
+        <v>484</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>VROUW; GLOSSY; FRONTPAGE; ENTERTAINMENT/STERREN; ENTERTAINMENT</t>
+          <t>DFT; NIEUWS; FRONTPAGE; DFT</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1047</v>
+        <v>484</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -780,20 +826,26 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jeroen Mei</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+          <t>Rox van der Helm &amp; Ralph Beentjes (xgn.nl)</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Tanja Jess: ’Er is zoveel onbegrip als je kind transgender is’ VROUW Glossy</t>
+          <t>Review | Hogwarts legacy: wat zou J.K. Rowling vinden van transgender tovenaar?</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Tanja Jess: ’Er is zoveel onbegrip als je kind transgender is’ VROUW Glossy Tijdens corona raakte haar huwelijk in zwaar weer en viel het werk stil. Daarbij overleed haar vader en ging haar oudste kind in transitie van jongen naar meisje. Tanja Jess (55), actrice en maker van de goudeerlijke podcast Kaarten op Tafel, maakt de balans op na een roerige tijd. Dit verhaal staat in de nieuwste VROUW Glossy. Jullie kind van negentien is in transitie. Was je verbaasd toen ze daarmee aankwam?</t>
+          <t>Review | Hogwarts legacy: wat zou J.K. Rowling vinden van transgender tovenaar? Accio! Flipendo! Wie kent de beroemde toverspreuken niet uit het Harry Potter-universum? In het gloednieuwe game Hogwarts legacy, dat vanaf deze week uit is op PlayStation 5, Xbox Series X en pc, ben jij een tovenaarsleerling aan Zweinstein die een spannend verhaal beleeft in een wereld vol magie en mythische wezens. Het is alweer twaalf jaar geleden dat er een Harry Potter-game uitkwam en fans keken dan ook reikhalzend uit naar een nieuw avontuur.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -806,13 +858,21 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:66WC-K9Y1-JBNJ-2506-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:67HB-33K1-DY4K-S02C-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -825,18 +885,23 @@
           <t>Telegraaf</t>
         </is>
       </c>
-      <c r="Y4" t="n">
-        <v>1342</v>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>1363</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nikkie Tutorials heeft nachtmerries na chantage</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Marathon van Boston komt met categorie voor non-binaire personen</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43860</v>
+        <v>44817</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -845,7 +910,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>De Telegraaf.nl</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -854,38 +919,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>225</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>166</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TELESPORT; FRONTPAGE</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Marlies van Leeuwen</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Nikkie Tutorials heeft nachtmerries na chantage</t>
+          <t>Marathon van Boston komt met categorie voor non-binaire personen</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Nikkie Tutorials heeft nachtmerries na chantage Nikkie de Jager, beter bekend als YouTube-ster Nikkie Tutorials, heeft last van nachtmerries nadat ze zich door een afperser gedwongen voelde om te vertellen dat ze transgender is. ,,Het heeft mijn lichaam zo veel stress en onrust bezorgd.” In haar Instagram-stories beantwoordt Nikkie vanochtend wat vragen van fans, onder meer of het goed met haar gaat. Daarop zegt ze in eerste instantie dat het best goed gaat. ,,Het gaat op en neer, maar het gaat goed... denk ik.” Dan besluit ze haar gevoel wat meer uit te leggen. ,,Ik heb de afgelopen dagen wat meer last van nachtmerries over het afpersen. Dan droom ik dat het weer opnieuw begint”, legt Nikkie uit. ,,Het heeft mijn lichaam zo veel stress en onrust bezorgd. Daar maak ik me wel een beetje zorgen over, maar verder gaat het goed.” De coming-out van Nikkie de Jager twee weken geleden was wereldnieuws. Ze vertelde dat zij mede besloten had dit met de wereld te delen omdat iemand haar chanteerde met haar geheim. Deze week liet ze weten dat ze vooralsnog geen stappen gaat ondernemen tegen degene die dreigde bekend te maken dat ze transgender is.</t>
+          <t>Marathon van Boston komt met categorie voor non-binaire personen Atleten die in 2023 deelnemen aan de marathon van Boston hebben de mogelijkheid om zich te registreren als non-binaire personen. Dat meldt de Boston Athletic Association .</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>De Telegraaf.nl</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -893,37 +966,50 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5Y3F-YSK1-DY0X-93C2-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:66CH-JM71-JBNJ-228G-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>AD 2019-2021 hele sample.XLSX</t>
+          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Algemeen Dagblad</t>
-        </is>
-      </c>
-      <c r="Y5" t="n">
-        <v>564</v>
+          <t>Telegraaf</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>1317</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Netflixdocu inspiratie voor gruwelijke moord: obsessie met marteling, dood en bloed Minimaal 24 jaar cel voor Britse Scarlet Blake (26)</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Atletiekfederatie: ‘Maximumwaarde testosteron transgenders in vrouwenwedstrijden moet omlaag’t</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45349</v>
+        <v>44950</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -932,7 +1018,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -941,15 +1027,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1027</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>BUITENLAND; FRONTPAGE</t>
-        </is>
+        <v>347</v>
+      </c>
+      <c r="G6" t="n">
+        <v/>
       </c>
       <c r="H6" t="n">
-        <v>1027</v>
+        <v>347</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -958,25 +1042,31 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Kiran Renfurm</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>Sportredactie</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Netflixdocu inspiratie voor gruwelijke moord: obsessie met marteling, dood en bloed Minimaal 24 jaar cel voor Britse Scarlet Blake (26)</t>
+          <t>Atletiekfederatie: ‘Maximumwaarde testosteron transgenders in vrouwenwedstrijden moet omlaag’t</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Netflixdocu inspiratie voor gruwelijke moord: obsessie met marteling, dood en bloed Minimaal 24 jaar cel voor Britse Scarlet Blake (26) De 26-jarige Britse transgender Scarlet Blake hoorde maandagmiddag dat ze minimaal 24 jaar de cel in moet voor de brute moord op Jorge Martin Carreno (30) in 2021. Twee jaar lang hield de gruwelijke daad Engeland in zijn greep omdat Carreno’s moordenaar ermee weg leek te komen. Tot Blake’s ex uiteindelijk naar de politie stapte. De familie van Carreno legde emotionele verklaringen af tijdens de strafzaak, zo schrijft de Britse krant The Daily Mail. Carreno’s broer Gerardo vertelde dat de dood van zijn broer zijn familie had gebroken: „Blake heeft geen spijt van haar daden en dat maakt het nog moeilijker om de barbaarsheid te verwerken”, las hij voor in de rechtszaal. „We missen hem elke dag. We fantaseren hoe zijn leven zou zijn als hij Blake niet was tegengekomen die nacht.”</t>
+          <t>Atletiekfederatie: ‘Maximumwaarde testosteron transgenders in vrouwenwedstrijden moet omlaag’t De mondiale atletiekbond wil de regels voor deelname van transgenders in vrouwenwedstrijden aanscherpen. Het voorstel is om de maximumwaarde van testosteron nog verder omlaag te brengen. Atleten moeten bovendien twee jaar in plaats van één jaar voldoen aan die lagere waarde om bij de vrouwen te mogen blijven meedoen. Verder is World Athletics van plan de testosteronlimiet uit te breiden naar alle onderdelen en niet alleen op de loopafstanden van 400 meter tot en met de Engelse mijl.</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -984,37 +1074,50 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6BF0-PP11-JBNJ-2178-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:67CX-NHW1-DY0X-950Y-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
+          <t>AD 2022-2023 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y6" t="n">
-        <v>1533</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Maria diende als man</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Klacht tegen non-binaire keeper Jays om meespelen bij vrouwen WV-HEDW</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43781</v>
+        <v>45390</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1023,7 +1126,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1032,76 +1135,97 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>673</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>THEMA;Blz. 13</t>
-        </is>
+        <v>1006</v>
+      </c>
+      <c r="G7" t="n">
+        <v/>
       </c>
       <c r="H7" t="n">
-        <v>673</v>
+        <v>1006</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Jesper Roele</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Maria diende als man</t>
+          <t>Klacht tegen non-binaire keeper Jays om meespelen bij vrouwen WV-HEDW</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Maria diende als man Vervolgd omdat ze zich voor kerel uitgaf Transgenders zijn tegenwoordig ’in’. Maar ook in de 17e en 18e eeuw waren er  vrouwen die zich als man voordeden. Vooral om economische redenen.  Mannenberoepen verdienden namelijk meer. De overheid trad echter streng op  tegen travestieten, zoals ’soldaat’ Maria van Antwerpen tot haar schande  ondervond. ’Nu vrienden hoort zingen/ en Lied capital/het zijn vreemde dingen/geschied in  Bredael/een dochter bij maete /vol eere als een held/ zy trok voor de Staeten/  kloekmoedig te veld.’</t>
+          <t>Klacht tegen non-binaire keeper Jays om meespelen bij vrouwen WV-HEDW Het vrouwenelftal van Alcmaria Victrix heeft een klacht ingediend bij de KNVB, omdat bij tegenstander WV-HEDW uit Amsterdam-Oost een non-binaire keeper op doel stond. Keeper Jays werd voor drie wedstrijden geschorst. WV-HEDW wil duidelijkheid van de KNVB. Keeper Jays is als vrouw geboren, maar ging op jonge leeftijd in transitie omdat die zich geen vrouw voelde. In het paspoort van Jays kwam uiteindelijk te staan dat die man is. Kort voetbalde Jays ook in mannenteams, maar daar voelde de keeper zich niet op diens gemak. Sinds enkele jaren voetbalt Jays daarom bij de vrouwen van Wilhelmina Vooruit-Hortus Eendracht Doet Winnen (WV-HEDW) en identificeert zich als non-binair.</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5XGK-4JX1-JCBS-P51P-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6BRR-KN21-DY0X-93CP-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Telegraaf 2019-2021 hele sample.XLSX</t>
+          <t>AD 2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y7" t="n">
-        <v>2616</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>2169</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Hoe Poetin J.K. Rowling voor zijn zaak probeerde in te zetten</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Gio voelde zich als dakloze lhbti+’er niet veilig op straat: ‘Aparte daklozenopvang is noodzakelijk’</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44652</v>
+        <v>45192</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1110,7 +1234,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1119,11 +1243,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>459</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>1257</v>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
       <c r="H8" t="n">
-        <v>459</v>
+        <v>1257</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1132,25 +1258,31 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hans Bouman</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+          <t>Zoë van Leeuwen</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Hoe Poetin J.K. Rowling voor zijn zaak probeerde in te zetten</t>
+          <t>Gio voelde zich als dakloze lhbti+’er niet veilig op straat: ‘Aparte daklozenopvang is noodzakelijk’</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Hoe Poetin J.K. Rowling voor zijn zaak probeerde in te zetten De Russische president Poetin zei dat Rusland gecanceld wordt, ‘net als J.K. Rowling’. De Britse schrijver stelde zich nuchter teweer. Iedere Harry Potter-lezer weet het: het valt niet mee je te weer te stellen tegen de Zwarte Kunsten, de kunsten die in de boeken worden bedreven door de zogeheten Dooddoeners en hun meester, Voldemort, Heer van het Duister. Op Zweinstein joegen ze er in de zeven jaren dat Harry en zijn vrienden daar studeerden maar liefst zeven leraren Verweer tegen de Zwarte Kunsten doorheen. In het eerste jaar werd die functie vervuld door Quirinus Krinkel (ik houd hier even de vindingrijke Nederlandse benamingen van vertaler Wiebe Buddingh’ aan). Goeie vent, lijkt het, maar helaas draagt hij Voldemort met zich mee en dat loopt niet goed af. Krinkel wordt opgevolgd door de vermakelijke nietsnut Gladianus Smalhart.</t>
+          <t>Gio voelde zich als dakloze lhbti+’er niet veilig op straat: ‘Aparte daklozenopvang is noodzakelijk’ Gio van der Loos pleit voor een aparte opvang voor dak- en thuisloze lhbti+’ers. Deze gemeenschap moet in bescherming worden genomen.’’ Als geen ander weet hij hoe het is om zich bedreigd te voelen in een omgeving die juist is bedoeld als veilige haven. Gio was 20 jaar toen hij met zijn hele inboedel op straat kwam te staan. Door een eetstoornis en een verslaving kwam hij terecht in een safehouse. De eetstoornis werd alleen maar erger en ook ging het mentaal in een rap tempo bergafwaarts.</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1158,37 +1290,50 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:654B-FHR1-DY0X-934R-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:697F-R6B1-DY0X-90XN-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Volkskrant 2022-2024 1-200.XLSX</t>
+          <t>AD 2022-2023 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y8" t="n">
-        <v>3213</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Een derde van de trans mannen heeft nog eisprong</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>De 'antigenderbeweging' klinkt steeds luider en steeds feller Lhbti-rechten Antigenderbeweging groeit niet, maar is wel steeds zichtbaarder</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45345</v>
+        <v>45089</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1206,15 +1351,15 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>538</v>
+        <v>2247</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>WETENSCHAP;Blz. 16</t>
+          <t>VOORPAGINA;Blz. 1</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>538</v>
+        <v>2247</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1223,20 +1368,26 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Menno Sedee</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+          <t>Mandula van den Berg Menno Sedee Foto's Hedayatullah Amid</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Een derde van de trans mannen heeft nog eisprong</t>
+          <t>De 'antigenderbeweging' klinkt steeds luider en steeds feller Lhbti-rechten Antigenderbeweging groeit niet, maar is wel steeds zichtbaarder</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Een derde van de trans mannen heeft nog eisprong ABSTRACT Vruchtbaarheid De meeste trans mannen menstrueren niet meer door testosteron. Toch moeten zij de kans om zwanger te worden niet uitsluiten. Trans mannen menstrueren in principe niet meer. Ook als ze hun eierstokken en baarmoeder hebben gehouden, worden ze door het testosteron dat ze krijgen vaak niet meer ongesteld. Zij zullen er dus van uitgaan dat ze niet meer zwanger kunnen worden.</t>
+          <t>De 'antigenderbeweging' klinkt steeds luider en steeds feller Lhbti-rechten Antigenderbeweging groeit niet, maar is wel steeds zichtbaarder ABSTRACT Reportage Antigender in Nederland Een allegaartje van extreemrechts, ultraconservatieve christenen en rechtse homoseksuelen verzet zich luidruchtig tegen de genderbeweging, die het beschouwt als ,,een vorm van destructivisme". Half april, Rotterdam. Terwijl lopers van de marathon luidkeels worden aangemoedigd, klinkt een paar straten verderop voor theater LantarenVenster om heel andere redenen geschreeuw. ,,Nederland wees paraat, hou de pedo's van de straat!", scandeert de ene kant van de straat naar de andere kant. Die is met meer, en roept terug: ,,Nazi's go home!" Er klinkt tromgeroffel en iemand steekt een groene rookbom af. De aanleiding: twee dragqueens zullen die dag voorlezen aan kinderen. De organisator van het protest valt nauwelijks op tussen de schreeuwende groepen. Lennard van Mil is de voorzitter van Stichting De Roze Leeuw, een homobelangenorganisatie die zich verzet tegen 'genderideologie'. De voorleesmiddagen zijn al jaren een manier om jonge kinderen kennis te laten maken met diversiteit en genderidentiteit. Maar de conservatieve homo-organisatie - die naar eigen zeggen twintig vrijwilligers en honderden donateurs heeft, maar met maar drie man aanwezig is op het protest - sprak zich op Twitter uit tegen de actie, die kinderen zou seksualiseren: ,,Ons land is ziek, ernstig ziek", stond in een van de vele posts. ,,Kom op Nederland, zelfs de homo's springen nu op de barricades!"</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1249,13 +1400,21 @@
           <t>Krant</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6BD3-8NN1-JCMP-218S-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:68FG-K2V1-F03R-S005-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1268,18 +1427,23 @@
           <t>NRC</t>
         </is>
       </c>
-      <c r="Y9" t="n">
-        <v>2001</v>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>1905</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Schoonheid als schreeuw: ‘Ik wil mij zijn’</t>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hollywoodster Elliot Page bedankt fans voor positieve reacties op coming-out</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44839</v>
+        <v>44185</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1288,7 +1452,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>De Telegraaf.nl</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1297,76 +1461,97 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>460</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ENTERTAINMENT; ENTERTAINMENT/GOSSIP</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>460</v>
+        <v>140</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Joyce Roodnat</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Schoonheid als schreeuw: ‘Ik wil mij zijn’</t>
+          <t>Hollywoodster Elliot Page bedankt fans voor positieve reacties op coming-out</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Schoonheid als schreeuw: ‘Ik wil mij zijn’ Bij de Transgenderwet is de vraag hoe serieus de gevoelens van een individu genomen moeten worden. De Deense Ovartaci geeft antwoord, ziet Joyce Roodnat in Venetië . Haar werk is een stomp tussen de ogen. Op de Biënnale van Venetië , open sinds dit voorjaar, is het druk, maar niet meer met hordes of wachtrijen. Het water golft wild, dat wel. Aqua alta dreigt, langs de kades worden plankieren neergezet om ons te behoeden voor vissen tussen onze tenen. Het is een mooie editie van de Biënnale. Waardering voor outsider art is onstuitbaar in opmars (zie ook de Documenta in Kassel), met voorop de ‘ontdekking’ van de kunst van al die vrouwen die tot voor kort in de reguliere kunstwereld outsiders per definitie waren. In de landpaviljoenen is er sprake van overkill (de VS), stom (Duitsland), mooi (België), spannend (Noorwegen/ Zweden/ Finland ), meeslepend (Frankrijk). Nederland scoort met Melanie Bonajo en haar kerkje vol stralend genot. Goed om mee te maken, maar ik wacht nog op het onverwachte. En net als ik dat opgeef, krijg ik de stomp tussen mijn ogen. Het is een van de bijdragen aan de grote expositie waar de Biënnale haar karakter toont. Waar ze haar keuzes onderbouwt. Waar ze haar kont laat zien.</t>
+          <t>Hollywoodster Elliot Page bedankt fans voor positieve reacties op coming-out Elliot Page heeft voor het eerst sinds hij bekendmaakte transgender te zijn van zich laten horen op sociale media. De 33-jarige acteur, die bekend is van de bekroonde film Juno, plaatste een selfie en bedankte zijn fans voor alle positieve reacties op zijn coming-out.</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>De Telegraaf.nl</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Web Publication</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:66J7-NRR1-JBNH-J2HD-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:61JV-J361-DY4K-S005-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>NRC 2022-2024 hele sample.XLSX</t>
+          <t>Telegraaf 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
-        <v>1769</v>
+          <t>Telegraaf</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>2672</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>’Zeldzame seriemoord’ op basisschool VS: transgender schutter richt bloedbad aan Audrey Hale ging sinds kort door het leven als man</t>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Juist extreemrechts wil groot deel van bevolking cancellen'</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45013</v>
+        <v>44343</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1375,7 +1560,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>NRC Handelsblad</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1384,15 +1569,15 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>664</v>
+        <v>578</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BUITENLAND; FRONTPAGE</t>
+          <t>CULTUREEL SUPPLEMENT;Blz. 8</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>664</v>
+        <v>578</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1401,63 +1586,82 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>onze redactie buitenland</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>Jonas Staal</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>’Zeldzame seriemoord’ op basisschool VS: transgender schutter richt bloedbad aan Audrey Hale ging sinds kort door het leven als man</t>
+          <t>Juist extreemrechts wil groot deel van bevolking cancellen'</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>’Zeldzame seriemoord’ op basisschool VS: transgender schutter richt bloedbad aan Audrey Hale ging sinds kort door het leven als man „Dit zag niemand aankomen”, zo reageerde een voormalige schoolvriendin van seriemoordenaar Audrey Hale geschokt op het bloedbad dat Hale maandag aanrichtte op de lagere school waar zij op zat in de plaats Nashville. „Niemand op school was verbaasd dat zij naar buiten kwam als trans (van vrouw naar man - red. ) maar ze past absoluut niet in het plaatje van een seriemoordenaar”, aldus de vriendin die graag anoniem wil blijven. Audrey Hale ging maandagochtend om kwart over tien lokale tijd gewapend met twee automatische geweren en een pistool de Convenant Christian High School, een christelijke basisschool, binnen waar zij onmiddellijk het vuur opende. Op door de politie vrijgegeven beelden is te zien dat zij met een auto aan komt rijden, dan een glazen toegangsdeur aan flarden schiet en vervolgens door de gangen van de school loopt, op zoek naar slachtoffers.</t>
+          <t>Juist extreemrechts wil groot deel van bevolking cancellen' ABSTRACT reactie activisme Kunstenaar Jonas Staal reageert op de special Kunst &amp; activisme van 20 mei. ,,De taak van kunst is alternatieve democratische modellen te verbeelden en te propageren." In het artikel Kan kunst de wereld redden? (CS, C14-15, 20 mei 2021) van Paul Steenhuis wordt gesteld dat ik als kunstenaar deel ben van een beweging postmoderne activisten die zich als doel zou stellen de ,,liberale democratie dood [te] knuppelen."</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>NRC Handelsblad</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:67WB-BB91-DY4K-S0FV-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:62SG-24C1-JCMP-2513-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
+          <t>NRC 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y11" t="n">
-        <v>1388</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>2990</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ophef over steun SGP-leider voor verklaring tegen homoseksualiteit</t>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>De desinformatie van stemmingmakers vertegenwoordigt geen cultuur, behalve die van de misleiding</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43472</v>
+        <v>45011</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1466,7 +1670,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1475,15 +1679,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>419</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Ten Eerste;Blz. 2</t>
-        </is>
+        <v>630</v>
+      </c>
+      <c r="G12" t="n">
+        <v/>
       </c>
       <c r="H12" t="n">
-        <v>419</v>
+        <v>630</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1492,44 +1694,58 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>MARC VAN DEN EERENBEEMT</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+          <t>Michael Persson</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Ophef over steun SGP-leider voor verklaring tegen homoseksualiteit</t>
+          <t>De desinformatie van stemmingmakers vertegenwoordigt geen cultuur, behalve die van de misleiding</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Ophef over steun SGP-leider voor verklaring tegen homoseksualiteit Het document circuleerde in Nederland lang in betrekkelijke stilte in orthodox-protestantse kring, maar afgelopen weekeinde leidde de zogenoemde Nashville-verklaring tot een storm van protest. Onder anderen parlementariër Kees van der Staaij, voorman van de streng-christelijke SGP, bleek zijn handtekening te hebben gezet onder het document van Amerikaanse origine, dat homo's en transgenders de kerk uit lijkt te jagen.</t>
+          <t>De desinformatie van stemmingmakers vertegenwoordigt geen cultuur, behalve die van de misleiding Van regenboogpiet tot transgenders en de Week van de Lentekriebels: weer wist een groepje radicaal-rechtse stemmingmakers van een niet-bestaande mug een olifant te maken. Daarbij zoeken ze hun toevlucht steeds tot spookbeelden. De Week van de Lentekriebels is voorbij, maar het vieze gekrabbel eraan blijft nog wel even voelbaar. Opnieuw wist een groepje radicaal-rechtse stemmingmakers van een niet-bestaande mug een olifant te maken. Het zal niet de laatste keer zijn: het gemorrel aan liberale waarden en verworvenheden is onderdeel van een ‘cultuurstrijd’ die steeds hardere trekken vertoont.</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5V4N-N1S1-DYRY-X1JJ-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:67VY-PNB1-JBHV-K2PN-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 201-500.XLSX</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -1537,18 +1753,23 @@
           <t>Volkskrant</t>
         </is>
       </c>
-      <c r="Y12" t="n">
-        <v>873</v>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>2311</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Blij dat we in Nederland wonen'</t>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Loiza Lamers stelt theatertournee uit</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43953</v>
+        <v>45196</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1557,7 +1778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1566,76 +1787,97 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1350</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>VROUW;Blz. NaN</t>
-        </is>
+        <v>248</v>
+      </c>
+      <c r="G13" t="n">
+        <v/>
       </c>
       <c r="H13" t="n">
-        <v>1350</v>
+        <v>248</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Showredactie</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Blij dat we in Nederland wonen'</t>
+          <t>Loiza Lamers stelt theatertournee uit</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Blij dat we in Nederland wonen' Rowan (35) werd als meisje geboren, Louisa (35) als jongen. Via televisieserie Onze Transgender Liefde konden we hun leven als transgenderkoppel volgen. Inmiddels hebben ze een zoontje (2) en zijn ze druk bezig met een nieuwe serie: Eerste Hulp bij Poetsen. Voor dit interview stond een rit naar Venlo, hun woonplaats, gepland. Maar vanwege de corona- crisis doen we het toch maar telefonisch. Mét video, want we willen elkaar natuurlijk wel zien. Als ik begin over hun nieuwe serie waarin ze mensen helpen met het schoonmaken van hun huis, brandt Rowan meteen los. "Je kunt een heleboel viezigheid verwachten. Echt, we zijn dingen tegen-gekomen bij mensen thuis... Soms halen we wel drie containers vol troep uit een huis. Ik heb een beetje last van smetvrees, dus je ziet vooral Louisa schoonmaken en mij klussen." Is dat bij jullie thuis ook de verdeling in het huishouden? Rowan: "We hebben de afspraak gemaakt dat ik de boven- verdieping bijhoud en Louisa de benedenverdieping. Ik doe de was en verschoon de bedden. Daarnaast poets ik de badkamer, houd de slaapkamers schoon en vouw en berg de was op."</t>
+          <t>Loiza Lamers stelt theatertournee uit Loiza Lamers heeft haar theatertournee uitgesteld naar volgend jaar. Het model heeft meer tijd nodig om het ‘helemaal perfect maken zoals ik het voor ogen heb’ schrijft ze in haar Instagram Stories.</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5YWX-56Y1-DY4D-Y4C6-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:698C-5HD1-JBHV-K1DM-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Telegraaf 2019-2021 hele sample.XLSX</t>
+          <t>AD 2022-2023 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y13" t="n">
-        <v>2624</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Online haat biedt Rikkie juist een extra groot podium</t>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Regenboogvlag in Alblasserdam : ‘Dat had ik een half jaar geleden niet durven hopen’</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45118</v>
+        <v>44116</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1644,7 +1886,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1653,15 +1895,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>600</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Landelijk;Blz. 11</t>
-        </is>
+        <v>318</v>
+      </c>
+      <c r="G14" t="n">
+        <v/>
       </c>
       <c r="H14" t="n">
-        <v>600</v>
+        <v>318</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1670,44 +1910,58 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>MARK DEN BLANKEN</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+          <t>Albert Sok</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Online haat biedt Rikkie juist een extra groot podium</t>
+          <t>Regenboogvlag in Alblasserdam : ‘Dat had ik een half jaar geleden niet durven hopen’</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Online haat biedt Rikkie juist een extra groot podium Negatieve reacties op haar verkiezing als Miss Nederland doen Rikkie Kolle (22), die als eerste transgendervrouw die titel won, niets. Sterker nog, zegt ze: ,,Door die haters kan ik op meer plekken mijn verhaal delen. Ik ben er alleen maar dankbaar voor.'' Rikkie kolle eerste Transgendervrouw die verkiezing wint Mark den Blanken Leusden Met haar jongere broer en zus en haar ouders op de eerste rij schreef Rikkie Kolle zaterdagavond in Leusden geschiedenis. Als eerste transvrouw werd ze uitgeroepen tot Miss Nederland. Zus Isa (19) deed ook mee met de casting voor de verkiezing, maar werd niet geselecteerd. Zaterdag stond ze, net als de rest van het gezin, volledig achter haar oudere zus.</t>
+          <t>Regenboogvlag in Alblasserdam : ‘Dat had ik een half jaar geleden niet durven hopen’ Ook in Alblasserdam wapperde maandag de regenboogvlag, waarmee wordt stilgestaan bij de positie van lesbische, homoseksuele, biseksuele, transseksuele en interseksuele personen (lhbti) in de samenleving. Dat is eigenlijk een dag te laat, omdat het banier eigenlijk gehesen hoort te worden op coming out day. Dat is jaarlijks op 11 oktober, maar omdat die datum op een zondag viel, is voor de dag erna gekozen. ,,Het was heel bijzonder en mooi’’, zegt Dennis Messemaker, homoseksueel uit Alblasserdam . ,,Dit hadden we een half jaar geleden niet durven hopen.’’ Niet in goede aarde Dat het toch zover kwam, is te danken aan D66. Die partij diende onlangs een motie in in de gemeenteraad, die met een meerderheid werd aangenomen. Dat viel niet bij iedereen in goede aarde, want de SGP besloot daarop uit de lhbti-werkgroep te stappen. De vlag heeft voor christenen een andere betekenis, namelijk dat de aarde nooit meer door een watervloed zal vergaan.</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:68NN-K451-JC8X-60YM-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6124-5XR1-DY0X-9056-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>AD 2022-2023 hele sample.XLSX</t>
+          <t>AD 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -1715,18 +1969,23 @@
           <t>Algemeen Dagblad</t>
         </is>
       </c>
-      <c r="Y14" t="n">
-        <v>313</v>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
+        <v>646</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Ik denk niet dat robotszoals wij willen zijn'</t>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Transgender Objectief verschil</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43784</v>
+        <v>44680</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1744,15 +2003,15 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1645</v>
+        <v>237</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BOEKEN;Blz. 14</t>
+          <t>OPINIE;Blz. 17</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1645</v>
+        <v>237</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1761,25 +2020,31 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Joyce Roodnat Roger Cremers</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+          <t>Hanneke Kouwenberg</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Ik denk niet dat robotszoals wij willen zijn'</t>
+          <t>Transgender Objectief verschil</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Ik denk niet dat robotszoals wij willen zijn' ABSTRACT Jeanette Winterson In haar roman Frankusstein laat de Britse schrijfster de geest van Mary Shelley en haar monster voortleven in een toekomst van kunstmatige intelligentie en seksrobots. ,,Dat Mary Shelley transgender wordt, zou ze leuk gevonden hebben." Jeanette Winterson (1959) is schrijver van vervaarlijke boeken, die knisperen van drift, humor, kennis en sardonische psychologie. Lees alleen Waarom gelukkig zijn als je ook normaal kunt zijn? , haar memoires als adoptiekind in een christelijke sekte en je weet hoe dat komt. Zelf is ze helemaal niet vervaarlijk, blijkt in Amsterdam. Daar vertelt ze gul en goedlachs en met gevoel voor understatement over haar nieuwste roman Frankusstein (een liefdesverhaal) , waarmee ze haar terrein uitbreidt naar sciencefiction. Vrees niet, het is niet iets met ruimteschepen. Het boek stort zich op een toekomst waarin de mens op het punt staat het eeuwige leven te veroveren, door toepassing van  kunstmatige intelligentie, cryonisme oftewel ingevoren lichamen en het uploaden van het menselijke brein. Maar het begint 200 jaar eerder, met  Mary Shelley die eigenlijk Godwin heet. Ze verblijft aan het meer van Genève, met haar minnaar de dichter Percy Shelley,  hun vriend Lord Byron, diens minnares Claire en de irritante dokter Polidori. De mannen doen een wedstrijdje griezelverhalen schrijven. Mary mag meedoen en legt de basis voor Frankenstein , haar roman over dokter Frankenstein die met dode lichaamsdelen een Monster creëert. Het boek werd een mijlpaal in de literatuur  en resoneert  nog altijd. Begon dit boek met Mary Shelley?</t>
+          <t>Transgender Objectief verschil Aiken van Waveren (Biologisch feit, 27/4) stelt dat transgenders objectief verschillen van cis-mensen. Er zijn inderdaad verschillen gevonden in de hersengebieden die te maken hebben met zelfperceptie, een bevinding die niet staaft dat er sprake is van 'een vrouw in een mannenlichaam' (of omgekeerd), maar eerder doet afvragen hoe dit zich verhoudt tot de Body Dismorphic Disorder. Vóór hormonale behandeling hebben de hersenen van transgenders de karakteristieken van mensen met hetzelfde aangeboren geslacht. Als er hersenverschillen zouden zijn, zou de genderidentiteit met een MRI zijn vast te stellen. De deskundigenverklaring was dan allang afgeschaft, net als de ,,hoepels" waar transgenders ,,door moeten springen". Dat is evident niet het geval. Slechts drie deskundigen zijn in het rapport over de evaluatie van de genderwet geraadpleegd, en zij waren niet zeker of de duurzaamheid van de overtuiging 'van het andere geslacht zijn' vastgesteld kon worden. Ze stelden niet dat de verklaring 'onzinnig' zou zijn. Daarentegen geldt maatschappelijk: als deze laatste, wankele toets wegvalt, betreden we een troebele pseudowerkelijkheid, waarin de biologische feitelijkheid van geslacht is afgeschaft. Op drijfzand valt echter geen samenleving of rechtsstaat te bouwen. Brenda Dirkse (Laten we in het debat over genderidentiteit bij de feiten blijven, 25/4) heeft gewoon gelijk.</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>NRC.NEXT</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1787,18 +2052,26 @@
           <t>Krant</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v/>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5XH7-5371-DYMH-R2G1-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:65B8-GVD1-F03R-S1DV-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NRC 2019-2021 hele sample.XLSX</t>
+          <t>NRC 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -1806,18 +2079,23 @@
           <t>NRC</t>
         </is>
       </c>
-      <c r="Y15" t="n">
-        <v>2844</v>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>1664</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Oud-Utopiaan Noah Bol (29) plotseling overleden</t>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Roos de Vries: ‘Het probleem is dat er zo veel normen en waarden hangen aan de concepten ‘man’ en ‘vrouw’’</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44565</v>
+        <v>43753</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1826,7 +2104,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1835,38 +2113,46 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>158</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT; STERREN; ENTERTAINMENT; FRONTPAGE</t>
-        </is>
+        <v>869</v>
+      </c>
+      <c r="G16" t="n">
+        <v/>
       </c>
       <c r="H16" t="n">
-        <v>158</v>
+        <v>869</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Lisa Koetsenruijter</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v/>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Oud-Utopiaan Noah Bol (29) plotseling overleden</t>
+          <t>Roos de Vries: ‘Het probleem is dat er zo veel normen en waarden hangen aan de concepten ‘man’ en ‘vrouw’’</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Oud-Utopiaan Noah Bol (29) plotseling overleden Noah Bol, een oud-deelnemer van het realityprogramma Utopia, is maandag op 29-jarige leeftijd plotseling overleden. Dat bevestigt de uitvaartbegeleider, vriend en mede-Utopiaan Jacco Bosman aan Shownieuws.</t>
+          <t>Roos de Vries: ‘Het probleem is dat er zo veel normen en waarden hangen aan de concepten ‘man’ en ‘vrouw’’ Roos is non-binair en leidt ons door de nieuwe gendertentoonstelling in het Tropenmuseum:  de wereld van die en they Het staat in koeieletters op het T-shirt van Roos de Vries (24): ‘Non binary’, non-binair. Roos mag dan geboren en opgevoed zijn als meisje, die voelt zich vrouw noch man. En wenst daarom niet met ‘hij’ of ‘zij', maar met ‘die’ aangesproken te worden. ‘Al vrij jong wist ik dat ik geen meisje was. Dus dan moest ik wel een jongen zijn, toch? Maar zo voelde ik me ook niet. Het heeft tot mijn 22ste geduurd voordat ik het woord vond dat bij mijn identiteit paste.’ ‘In het Engels is ‘they’ gangbaar als aanspreekvorm voor non-binaire mensen. In Nederland hebben we sinds een paar jaar ‘hen’. Zelf vind ik ‘die’ het prettigst. Ik zeg altijd tegen mensen die het moeilijk vinden: je kunt ook gewoon vaak mijn naam gebruiken.’ Sinds vrijdag is in het Tropenmuseum de tentoonstelling What a Genderful World te zien. Die toont hoe de ideeën over mannelijkheid, vrouwelijkheid en alles daartussenin door de tijd en over de wereld verschillen.</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1874,37 +2160,50 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:64FW-C4Y1-DY4K-S3D7-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5X8P-YFM1-DY0X-922S-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
+          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y16" t="n">
-        <v>1227</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>956</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Zet kinderen niet onder druk met genderkeuze OPINIE Elise van Hoek, socioloog en moeder</t>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>’Trans sporter voer voor discussie’ Oude discussie nieuw leven ingeblazen</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44274</v>
+        <v>44368</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1913,7 +2212,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>De Telegraaf.nl</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1922,52 +2221,70 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>607</v>
+        <v>1107</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BINNENLAND;Blz. 19</t>
+          <t>BINNENLAND; FRONTPAGE</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>607</v>
+        <v>1107</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Marouscha van de Groep en Willem Held</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v/>
+      </c>
+      <c r="L17" t="n">
+        <v/>
+      </c>
+      <c r="M17" t="n">
+        <v/>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Zet kinderen niet onder druk met genderkeuze OPINIE Elise van Hoek, socioloog en moeder</t>
+          <t>’Trans sporter voer voor discussie’ Oude discussie nieuw leven ingeblazen</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Zet kinderen niet onder druk met genderkeuze OPINIE Elise van Hoek, socioloog en moeder OPINIE Elise van Hoek, socioloog en moeder Op veel basisscholen krijgen kinderen deze week voorlichting van kenniscentrum voor seksualiteit Rutgers en de GGD over genderdiversiteit. De theorieën waarmee kinderen worden geconfronteerd, verbazen socioloog Elise van Hoek. ,,Met een gezonde ontwikkeling heeft dit niets te maken."</t>
+          <t>’Trans sporter voer voor discussie’ Oude discussie nieuw leven ingeblazen Ze zijn al vaker opgedoken in de topsport, maar nu in Tokio hoogstwaarschijnlijk een transgender mee gaat doen aan gewichtheffen voor vrouwen, zal de discussie weer oplaaien. Is het wel eerlijk als voormalige mannen mee mogen doen bij de vrouwen? Volgens het Internationaal Olympisch Comité ( IOC ) moet die vraag met ’ja’ worden beantwoord. Niet voor niets veranderde het IOC in 2016 de regel voor transgenders die aan de Olympische Spelen mee willen doen. Vrouwen die eerder man waren, moeten minstens een jaar voor de Spelen een lagere testosteronwaarde in hun bloed hebben dan 10 nanomol per liter. De 43-jarige Nieuw-Zeelandse Laurel Hubbard voldoet aan die eis en mag dus meedoen in Tokio. Overigens mogen transgenders die als meisje zijn geboren zonder aanvullende eisen bij de mannen meedoen.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>De Telegraaf.nl</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v/>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+      <c r="U17" t="n">
+        <v/>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:627P-9JR1-JBNC-70P2-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:62YW-3F71-DY4K-S405-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -1980,18 +2297,23 @@
           <t>Telegraaf</t>
         </is>
       </c>
-      <c r="Y17" t="n">
-        <v>2693</v>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>2725</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Irak stemt in met wet die homoseksualiteit strafbaar stelt</t>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Je voelt meteen die reflex'</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45410</v>
+        <v>45370</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2000,7 +2322,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>AD/Algemeen Dagblad</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2009,11 +2331,15 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>301</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>633</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sportwereld;Blz. 8</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>301</v>
+        <v>633</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2022,63 +2348,82 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Veerle Schyns</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+          <t>TIM HARTMAN</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v/>
+      </c>
+      <c r="M18" t="n">
+        <v/>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Irak stemt in met wet die homoseksualiteit strafbaar stelt</t>
+          <t>Je voelt meteen die reflex'</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Irak stemt in met wet die homoseksualiteit strafbaar stelt Aanvankelijk wilde het parlement relaties tussen personen van het zelfde geslacht zelfs bestraffen met de doodstraf, maar onder druk van onder meer de Verenigde Staten en meerdere Europese landen is dat voorstel afgezwakt. Het Iraakse parlement heeft zaterdag een wet aangenomen die homoseksualiteit strafbaar stelt. Dat schrijven internationale persbureaus. Op relaties tussen personen van hetzelfde geslacht staat voortaan een gevangenisstraf van maximaal vijftien jaar. Tot dit weekend was homoseksualiteit officieel niet verboden, maar wel al taboe in het conservatieve land. Zo mochten media het woord homoseksualiteit niet gebruiken, net als bijvoorbeeld de term transgender.</t>
+          <t>Je voelt meteen die reflex' Noa-Lynn van Leuven (27) stond vorig jaar als eerste transvrouw op het professionele dartscircuit vol in de spotlights. Afgelopen weekend was dat weer zo, door haar zege op een Challenge Tour-toernooi met mannen én vrouwen. Een storm aan reacties volgde. Ook negatieve. Noa-Lynn van Leuven ontkomt als transvrouw niet aan de negatieve reacties ,,Bizar hoeveel reacties ik heb gehad'', zegt een trotse Noa-Lynn van Leuven als ze praat over afgelopen weekend in het Duitse Hildesheim. Daar, in Halle 39, debuteerde ze op de PDC Challenge Tour en pakte ze meteen de titel. ,,Andere darters, oud-darters zoals Darryl Fitton en Chris Mason, zelfs compleet random mensen: de berichten bleven komen. Op een gegeven moment heb ik mijn telefoon maar weggelegd'', vertelt ze.</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>AD/Algemeen Dagblad</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Web Publication</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v/>
+      </c>
+      <c r="S18" t="n">
+        <v/>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+      <c r="U18" t="n">
+        <v/>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6BX1-1031-DY4K-852V-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6BKD-D341-DYRY-X0M3-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>NRC 2022-2024 hele sample.XLSX</t>
+          <t>AD 2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y18" t="n">
-        <v>2043</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>2145</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Dit lijf past niet in een bepaald hokje,maar in mijn eigen hokje'</t>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Twee Iraanse vrouwen ter dood veroordeeld voor het opkomen voor rechten van lhbti’ers</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43892</v>
+        <v>44811</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2087,7 +2432,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2096,15 +2441,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1408</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>LEVEN;Blz. 6</t>
-        </is>
+        <v>688</v>
+      </c>
+      <c r="G19" t="n">
+        <v/>
       </c>
       <c r="H19" t="n">
-        <v>1408</v>
+        <v>688</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2113,63 +2456,82 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Sarah Ouwerkerk Foto Merlijn Doomernik</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+          <t>Rob Vreeken</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v/>
+      </c>
+      <c r="M19" t="n">
+        <v/>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Dit lijf past niet in een bepaald hokje,maar in mijn eigen hokje'</t>
+          <t>Twee Iraanse vrouwen ter dood veroordeeld voor het opkomen voor rechten van lhbti’ers</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Dit lijf past niet in een bepaald hokje,maar in mijn eigen hokje' ABSTRACT Ryan Ramharak (28)  is non-binair, voelt zich dus geen vrouw óf man. Ramharak is nu in lichamelijke transitie. ,,Wat kan ik dragen zonder dat mensen boos worden?" Op het terras had Ryan Ramharak (28) het laatst nog. ,,Wat wilt u drinken meneer", vroeg de jongen in de bediening. Ramharak ziet er misschien wel mannelijk uit, maar voelt zich geen man. En ook geen vrouw. Ramharak  is non-binair. Wat betekent dat? ,,Nou ja, gewoon, dat ik Ryan ben." Wat had de jongen wel moeten zeggen? ,,Gewoon; wat wilt u drinken?" Ook heeft Ramharak het liefst dat mensen in plaats van hij of hem, die of diens zeggen. ,,Daar voel ik me het prettigst bij." Of  hen en hun, dat zijn de meest gebruikte genderneutrale voornaamwoorden. De zoektocht naar identiteit, naar het thuis zijn in eigen lichaam begon al heel vroeg. Door de jaren heen heeft deze zich elke keer anders geuit. Ramharak ,,werd bij geboorte gezien als meisje" en groeide in die hoedanigheid op in een christelijk gezin, zonder televisie en zonder lhbti-rolmodellen. Ruim vijf jaar geleden zag Ramharak een filmpje van actrice Ruby Rose op YouTube , dat veranderde diens leven. ,,Dit is het, dacht ik."</t>
+          <t>Twee Iraanse vrouwen ter dood veroordeeld voor het opkomen voor rechten van lhbti’ers Twee vrouwen in Iran hebben de doodstraf opgelegd gekregen wegens het pleiten voor de rechten van lhbti’ers. Het is voor het eerst dat lhbti-activisme in Iran zo hard wordt aangepakt. Het in New York gevestigde Center for Human Rights in Iran (CHRI), dat dit nieuws naar buiten bracht, roept de internationale gemeenschap op het vonnis te veroordelen en de onmiddellijke vrijlating van het tweetal te eisen.</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>NRC.NEXT</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v/>
+      </c>
+      <c r="S19" t="n">
+        <v/>
+      </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+      <c r="U19" t="n">
+        <v/>
+      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5YB7-PXC1-JC5G-101D-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:66B9-B721-DY0X-94K5-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>NRC 2019-2021 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 1-200.XLSX</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y19" t="n">
-        <v>2866</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>3290</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Brigitte Macron krijgt schadevergoeding voor transgenderhoax</t>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Volkskrant Avond: Waarom moet ABN Amro particuliere klanten onderzoeken? | Trump uitgejouwd bij bezoek aan Dayton</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45547</v>
+        <v>43684</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2178,7 +2540,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2187,38 +2549,46 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>198</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>BUITENLAND; FRONTPAGE</t>
-        </is>
+        <v>887</v>
+      </c>
+      <c r="G20" t="n">
+        <v/>
       </c>
       <c r="H20" t="n">
-        <v>198</v>
+        <v>887</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Redactie</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v/>
+      </c>
+      <c r="L20" t="n">
+        <v/>
+      </c>
+      <c r="M20" t="n">
+        <v/>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Brigitte Macron krijgt schadevergoeding voor transgenderhoax</t>
+          <t>Volkskrant Avond: Waarom moet ABN Amro particuliere klanten onderzoeken? | Trump uitgejouwd bij bezoek aan Dayton</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Brigitte Macron krijgt schadevergoeding voor transgenderhoax Twee Franse vrouwen moeten Brigitte Macron, de vrouw van president Emmanuel Macron, 8000 euro schadevergoeding betalen. De twee hadden op sociale media geruchten verspreid dat Macron ooit een man genaamd Jean-Michel was. In werkelijkheid is Jean-Michel haar broer. De twee moeten hem 5000 euro schadevergoeding betalen.</t>
+          <t>Volkskrant Avond: Waarom moet ABN Amro particuliere klanten onderzoeken? | Trump uitgejouwd bij bezoek aan Dayton Vandaag belangrijk Waarom moet ABN Amro haar particuliere klanten onderzoeken? En wat dient er precies onderzocht te worden?Wat doet een klant precies met zijn betaalrekening? Waar komt het geld vandaan? Waarom neemt iemand vaak grote bedragen contant op? ABN Amro moet van de toezichthouder De Nederlandsche Bank ( DNB ) al haar ruim 5 miljoen particuliere klanten onderzoeken, om te voorkomen dat ze hun betaalrekeningen bijvoorbeeld misbruiken voor het witwassen van crimineel geld.</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2226,37 +2596,50 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v/>
+      </c>
+      <c r="S20" t="n">
+        <v/>
+      </c>
+      <c r="T20" t="n">
+        <v/>
+      </c>
+      <c r="U20" t="n">
+        <v/>
+      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6CY7-H3V1-JBNJ-20BN-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5WS0-TFX1-DY0X-92SF-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
+          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y20" t="n">
-        <v>1618</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>936</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Homo-acceptatie</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>strenge voorwaarden Trans vrouwen toegelaten tot internationale triatlonwedstrijden</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43680</v>
+        <v>44778</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2265,7 +2648,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2274,38 +2657,46 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BINNENLAND;Blz. 02</t>
+          <t>IN HET NIEUWS;Blz. 2</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="n">
+        <v/>
+      </c>
+      <c r="L21" t="n">
+        <v/>
+      </c>
+      <c r="M21" t="n">
+        <v/>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Homo-acceptatie</t>
+          <t>strenge voorwaarden Trans vrouwen toegelaten tot internationale triatlonwedstrijden</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Homo-acceptatie In Amsterdam wordt vandaag de afsluitende botenparade van de jaarlijkse Gay  Pride manifestatie gehouden. Het is het feestelijke sluitstuk van de jaarlijkse  themaweek waarin aandacht wordt gevraagd voor de acceptatie van homo’s,  lesbiennes en transgenders.</t>
+          <t>strenge voorwaarden Trans vrouwen toegelaten tot internationale triatlonwedstrijden Transgender vrouwen mogen vanaf volgende maand deelnemen aan de vrouwencompetitie bij internationale triatlonwedstrijden. Wel moeten zij voldoen aan strenge voorwaarden. Dat maakte de internationale triatlonbond, World Triathlon, woensdag bekend via hun website. Het beleid is alleen van toepassing bij internationale wedstrijden. De beslissing staat in contrast met het beleid van de internationale zwem- en rugbybonden, die trans vrouwen niet toelaten tot de vrouwencompetities. Onder de strikte eisen valt onder andere dat de triatleet ten minste vier jaar niet als man mag hebben deelgenomen aan een sportcompetitie. Om als trans vrouw toestemming te krijgen om deel te nemen aan internationale wedstrijden, moet de atleet verder twee jaar de testosteronwaardes verlagen. Link naar PDF</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2313,37 +2704,50 @@
           <t>Krant</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v/>
+      </c>
+      <c r="S21" t="n">
+        <v/>
+      </c>
+      <c r="T21" t="n">
+        <v/>
+      </c>
+      <c r="U21" t="n">
+        <v/>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5WR1-X9R1-JCBS-P01M-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6635-MYM1-JCMP-22TB-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Telegraaf 2019-2021 hele sample.XLSX</t>
+          <t>NRC 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y21" t="n">
-        <v>2607</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>1725</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Een seksspeeltje moet in de eerste plaats veilig zijn'</t>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>De Volkskrant tv-selectie voor maandag 1 augustus</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44961</v>
+        <v>44773</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2352,7 +2756,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2361,15 +2765,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1151</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>LEVEN;Blz. 8</t>
-        </is>
+        <v>742</v>
+      </c>
+      <c r="G22" t="n">
+        <v/>
       </c>
       <c r="H22" t="n">
-        <v>1151</v>
+        <v>742</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2378,63 +2780,82 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jonas Kooyman Foto's Annabel Oosteweeghel</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+          <t>Berend Jan Bockting, Jorrit van Broekhoven</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v/>
+      </c>
+      <c r="L22" t="n">
+        <v/>
+      </c>
+      <c r="M22" t="n">
+        <v/>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Een seksspeeltje moet in de eerste plaats veilig zijn'</t>
+          <t>De Volkskrant tv-selectie voor maandag 1 augustus</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Een seksspeeltje moet in de eerste plaats veilig zijn' ABSTRACT Testen Chantall van den Heuvel (47) uit Tiel test vibrators en andere seksspeeltjes. ,,Ontwerpers houden nu veel meer rekening met de vrouwelijke anatomie." 'Als je vijfentwintig jaar geleden een seksshop binnenstapte, kwam je in een schimmige ruimte terecht waar het aanbod voor 80 procent bestond uit van die witte neppiemels met aderen erop, gemaakt van goedkoop rubber. Mannen kochten er een voor hun vrouw, om de boel in de slaapkamer wat spannender te maken, niet wetende dat zo'n ding nooit in haar zou passen. Laat staan dat ze erop zou zitten te wachten. In de tussentijd is er gelukkig veel veranderd. ,,Sinds de eeuwwisseling heb ik zo'n 1.300 seksspeeltjes getest: duizend trillende, honderdvijftig dildo's, honderd speeltjes voor koppels en voor de rest accessoires als handboeien en glijmiddel.</t>
+          <t>De Volkskrant tv-selectie voor maandag 1 augustus Elke dag tipt de redactie van de Volkskrant de beste programma’s en films op televisie. Dit zijn die van maandag. Kiss Me Kate BBC 2, 15.45 uur (Musical, George Sidney, 1953) Kleurrijke verfilming van de gelijknamige theatermusical uit 1948 en dat is te zien: Kiss Me Kate is één langgerekte ode aan de zang- en danskunst. Het verhaaltje over twee voormalige geliefden, gespeeld door Kathryn Grayson en Howard Keel, die zich op het podium tijdens een uitvoering van Shakespeares Het temmen van de feeks mogen uitleven in échte emoties, is ondergeschikt aan de vloeiende danschoreografie en de lekkere liedjes van Cole Porter. Gefilmd in 3D, dus er wordt voortdurend van alles richting de camera gesmeten, zoals dat toen ging.</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v/>
+      </c>
+      <c r="S22" t="n">
+        <v/>
+      </c>
+      <c r="T22" t="n">
+        <v/>
+      </c>
+      <c r="U22" t="n">
+        <v/>
+      </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:67G6-GFR1-JCMP-200P-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6627-7291-DY0X-9511-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>NRC 2022-2024 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 1-200.XLSX</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y22" t="n">
-        <v>1824</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>3273</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>‘De kennis over intersekse moet flink vergroot worden’</t>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Transman in game heeftander trauma</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44228</v>
+        <v>44084</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2443,7 +2864,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>NRC Handelsblad</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2452,11 +2873,15 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>483</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>640</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>DE GIDS;Blz. 20</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>483</v>
+        <v>640</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2465,39 +2890,53 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Menno Sedee</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+          <t>Len Maessen</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v/>
+      </c>
+      <c r="L23" t="n">
+        <v/>
+      </c>
+      <c r="M23" t="n">
+        <v/>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>‘De kennis over intersekse moet flink vergroot worden’</t>
+          <t>Transman in game heeftander trauma</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>‘De kennis over intersekse moet flink vergroot worden’ Voor het eerst zijn er cijfers over de acceptatie van intersekse personen. Veel respondenten weten niet wat dit betekent. Hoe meet je de opvattingen over iets waarvan de meeste mensen niet eens het bestaan kennen? Neem intersekse. In de laatste LHBT-monitor , waarmee het Sociaal en Cultureel Planbureau elke paar jaar onderzoekt hoe het staat met de acceptatie van lesbische, homoseksuele, biseksuele en transgender personen, werd geconcludeerd dat opvattingen over intersekse personen nog nauwelijks in kaart zijn gebracht. Overheid en belangenorganisaties gebruiken echter al enkele jaren de afkorting ‘lhbti’ in beleid.</t>
+          <t>Transman in game heeftander trauma Het is geen topless-scène, geen dramatische coming-out flashback en zeker niet een oud familielid dat de verkeerde naam roept: dat Tyler Ronan transgender is, leren we als hij het boek Gezonde masculiniteit voor transgender mannen op zijn bureau oppakt. Een klein statement van de Franse gamemaker Dontnod: zó kun je ook met transgender personages omgaan. De game Tell Me Why draait om de assertieve, zoekende Tyler en zijn tobberige, afwachtende zus Alyson, die tien jaar geleden nipt een familiedrama wisten te voorkomen door hun eigen moordzuchtige moeder te doden. Tyler werd naar jeugddetentie gestuurd; Alyson bleef alleen achter in het afgelegen bergdorp in Alaska waar ze opgroeiden. Nu keert de tweeling terug naar hun ouderlijk huis om een traumatisch hoofdstuk in hun leven af te sluiten.</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>NRC Handelsblad</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Web Publication</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v/>
+      </c>
+      <c r="S23" t="n">
+        <v/>
+      </c>
+      <c r="T23" t="n">
+        <v/>
+      </c>
+      <c r="U23" t="n">
+        <v/>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:61WY-N2G1-DY4K-853B-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:60T7-KNS1-DYMH-R0NV-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2510,18 +2949,23 @@
           <t>NRC</t>
         </is>
       </c>
-      <c r="Y23" t="n">
-        <v>2948</v>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>2909</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Nog even doorzetten en we zijn terug bij de standenstaat</t>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>‘Anti-Trump-porno’ pest dochter en schoonzoon van de president</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44674</v>
+        <v>44129</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2530,7 +2974,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2539,15 +2983,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>949</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Zaterdag;Blz. 21</t>
-        </is>
+        <v>848</v>
+      </c>
+      <c r="G24" t="n">
+        <v/>
       </c>
       <c r="H24" t="n">
-        <v>949</v>
+        <v>848</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2556,63 +2998,82 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>MARTIN SOMMER</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+          <t>Bob van Huet</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v/>
+      </c>
+      <c r="L24" t="n">
+        <v/>
+      </c>
+      <c r="M24" t="n">
+        <v/>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Nog even doorzetten en we zijn terug bij de standenstaat</t>
+          <t>‘Anti-Trump-porno’ pest dochter en schoonzoon van de president</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Nog even doorzetten en we zijn terug bij de standenstaat Column Emailpost van bestuurskundige Paul 't Hart. Of ik - niet als enige - wil meehelpen nadenken over voorbeelden van succesvol overheidsbeleid. Momenteel staat de publieke sector er slecht op, en de onderzoekers zouden graag weten waar het wél goed gaat. Een honorabele vraag maar wel wat je noemt een uitdaging, zeker voor een journalist. En dat in een maand dat er onderzoek wordt gedaan naar ambtenaren bij de Belastingdienst in verband met 'knevelarij', het ministerie van Volksgezondheid nog moet bijkomen van Sywertgate, en het onderwijs gestaag verder achteruit sukkelt. Gaat er iets wel goed? De cynicus in mij wijst naar een foto van minister Robbert Dijkgraaf (Onderwijs), die de nieuwe transgender-vlag hijst. Dat is in elk geval dik in orde.</t>
+          <t>‘Anti-Trump-porno’ pest dochter en schoonzoon van de president De hardste en meest spraakmakende anti-Trump-boodschappen komen niet van de Democraten maar van het Lincoln Project, een groep vastberaden Republikeinen die hun partij ‘terug wil’ en het ‘ongeleide projectiel’ Trump uit het Witte Huis wenst.</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v/>
+      </c>
+      <c r="S24" t="n">
+        <v/>
+      </c>
+      <c r="T24" t="n">
+        <v/>
+      </c>
+      <c r="U24" t="n">
+        <v/>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:658X-D731-JC8X-64RM-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:614V-BY21-DY0X-90GF-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Volkskrant 2022-2024 1-200.XLSX</t>
+          <t>AD 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y24" t="n">
-        <v>3217</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>649</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Excuus voor transgenders</t>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Het jaar waarin de media inclusief werden</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44166</v>
+        <v>43820</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2621,7 +3082,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2630,38 +3091,48 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>83</v>
+        <v>544</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nieuwsdienst;Blz. 7</t>
+          <t>Zaterdag;Blz. 13</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>83</v>
+        <v>544</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>LISA BOUYEURE</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v/>
+      </c>
+      <c r="L25" t="n">
+        <v/>
+      </c>
+      <c r="M25" t="n">
+        <v/>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Excuus voor transgenders</t>
+          <t>Het jaar waarin de media inclusief werden</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Excuus voor transgenders Het kabinet heeft excuses gemaakt voor de oude Transgenderwet, die van 1985 tot 2014 van kracht was. Transgender personen die de geslachtsregistratie in hun geboortecertificaat aangepast wilden zien, moesten eerst een fysieke transitie en onomkeerbare sterilisatie ondergaan. Het kabinet komt met een tegemoetkoming van 5000 euro voor mensen die een transitie ondergingen, toen de wet gold. Het Transgendercollectief spande in 2019 een zaak aan tegen de Staat. Bekijk de oorspronkelijke pagina: pagina 7</t>
+          <t>Het jaar waarin de media inclusief werden De 10-jarige Fenna was de moeilijkste niet. Geïnspireerd door haar eigen gezinssituatie, met twee vaders en twee moeders, had ze dit jaar bij de Donald Duck geopperd dat er misschien ook eens wat homo's en lesbiennes in voor moeten komen. Fenna had een stapeltje strips aan inspectie onderworpen en geconcludeerd dat alle eenden, honden en muizen in Duckstad hetero zijn. Op de vraag van het Jeugdjournaal, of bekende figuren als Katrien en Goofy dan ineens homoseksueel zouden moeten worden, antwoordde ze beslist: 'Nee, dat is niet nodig. Alleen de poppetjes op de achtergrond.'</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2669,37 +3140,50 @@
           <t>Krant</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v/>
+      </c>
+      <c r="S25" t="n">
+        <v/>
+      </c>
+      <c r="T25" t="n">
+        <v/>
+      </c>
+      <c r="U25" t="n">
+        <v/>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:61DN-H7M1-DYRY-X3M5-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5XSW-H4S1-DYRY-X1F5-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>AD 2019-2021 hele sample.XLSX</t>
+          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Algemeen Dagblad</t>
-        </is>
-      </c>
-      <c r="Y25" t="n">
-        <v>657</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="Z25" t="n">
+        <v>976</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Hoe de Week van de Lentekriebels oorlog werd, behalve in de klas: ‘Hoe voelt dat?’</t>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Biden trekt transgenderverbod leger in</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45009</v>
+        <v>44221</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2708,7 +3192,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2717,11 +3201,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2180</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="G26" t="n">
+        <v/>
+      </c>
       <c r="H26" t="n">
-        <v>2180</v>
+        <v>151</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2730,63 +3216,82 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Robert van de Griend, Irene de Zwaan</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+          <t>Boris van der Spek</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v/>
+      </c>
+      <c r="L26" t="n">
+        <v/>
+      </c>
+      <c r="M26" t="n">
+        <v/>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Hoe de Week van de Lentekriebels oorlog werd, behalve in de klas: ‘Hoe voelt dat?’</t>
+          <t>Biden trekt transgenderverbod leger in</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Hoe de Week van de Lentekriebels oorlog werd, behalve in de klas: ‘Hoe voelt dat?’ Niet eerder was er zo veel ophef over de Week van de Lentekriebels. Drieduizend basisscholen geven dan les over onder meer seksualiteit. Verontruste ouders dreigden hun kind thuis te houden. ‘Het is walgelijke smerige manipulatie.’ Maar hoe ging het er in de klas echt aan toe? In de kleuterklas van basisschool De Clipper in Rotterdam-Zuid zitten op een woensdagochtend 19 jongetjes en meisjes in een kring met volle aandacht te voelen.</t>
+          <t>Biden trekt transgenderverbod leger in President Biden heeft nog in zijn eerste week als president een belangrijke campagnebelofte ingelost. Op maandag maakte het Witte Huis bekend dat het verbod op transgenders in de Amerikaanse strijdkrachten, een erfenis van oud-president Donald Trump, is ingetrokken. „De kracht van de Verenigde Staten wordt gevonden in haar diversiteit”, schrijft het Witte Huis. Een inclusieve strijdmacht is volgens de regering effectiever en „van nationaal belang”.</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+          <t>Web Publication</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v/>
+      </c>
+      <c r="S26" t="n">
+        <v/>
+      </c>
+      <c r="T26" t="n">
+        <v/>
+      </c>
+      <c r="U26" t="n">
+        <v/>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:67VF-CR31-JBHV-K0KP-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:61VH-B771-DY4K-82PT-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Volkskrant 2022-2024 201-500.XLSX</t>
+          <t>NRC 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y26" t="n">
-        <v>2310</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="Z26" t="n">
+        <v>2944</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Nashville-verklaring Wat staat erin?</t>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Vanaf de eerste minuut is Dick Schoof de controle kwijt. ‘Tjongejongejongejonge’, zegt hij</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43473</v>
+        <v>45554</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2795,7 +3300,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NRC Handelsblad</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2804,57 +3309,73 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>151</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>VOORPAGINA;Blz. 1</t>
-        </is>
+        <v>1354</v>
+      </c>
+      <c r="G27" t="n">
+        <v/>
       </c>
       <c r="H27" t="n">
-        <v>151</v>
+        <v>1354</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Lamyae Aharouay, Petra de Koning</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v/>
+      </c>
+      <c r="L27" t="n">
+        <v/>
+      </c>
+      <c r="M27" t="n">
+        <v/>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Nashville-verklaring Wat staat erin?</t>
+          <t>Vanaf de eerste minuut is Dick Schoof de controle kwijt. ‘Tjongejongejongejonge’, zegt hij</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Nashville-verklaring Wat staat erin? De Nashvilleverklaring over ,,bijbelse seksualiteit" constateert dat het ,,inmiddels gemeengoed" is geworden je geslacht niet te zien als deel van ,,Gods mooie plan" maar als uiting van je ,,eigen autonome voorkeur". Dit leidt tot ,,kortzichtige alternatieven die vroeg of laat het menselijk leven ruïneren en God onteren".</t>
+          <t>Vanaf de eerste minuut is Dick Schoof de controle kwijt. ‘Tjongejongejongejonge’, zegt hij Voor de ogen van premier Schoof ontstaat chaos, donderdag op dag twee van de Algemene Politieke Beschouwingen. Weer brengt gedoe tussen coalitiepartijen hem in de problemen. De eerste keer dat premierin de Tweede Kamer stond, net voor de zomer, ontspoorde het debat voor zijn ogen, zonder dat hij er iets aan kon veranderen. Dus er hangt nogal wat vanaf voor hem, donderdag op de tweede dag van de Algemene Politieke Beschouwingen (APB): Schoof moet laten zien dat hij de baas is van dit kabinet, dat hij zich niet van zijn stuk laat brengen en niet wéér door hoepeltjes springt die politieke leiders voor hem omhoog houden. Maar al vanaf de eerste minuut, hij heeft nog niets kunnen zeggen, is Schoof de controle kwijt. Voor zijn ogen ontstaat chaos. Schoof, partijloos premier, zegt al wekenlang dat hij niets te maken heeft met de moeizame omgang van de partijleiders van PVV, VVD, NSC en BBB, híj gaat over het kabinet. En toch is gedoe tussen die vier in de Tweede Kamer opnieuw de reden dat hij erbij staat alsof alles hem overkomt.</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>NRC Handelsblad</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+          <t>Web Publication</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v/>
+      </c>
+      <c r="S27" t="n">
+        <v/>
+      </c>
+      <c r="T27" t="n">
+        <v/>
+      </c>
+      <c r="U27" t="n">
+        <v/>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5V4Y-JW31-DYMH-R48H-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6D0S-39N1-DY4K-82NT-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NRC 2019-2021 hele sample.XLSX</t>
+          <t>NRC 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -2862,18 +3383,23 @@
           <t>NRC</t>
         </is>
       </c>
-      <c r="Y27" t="n">
-        <v>2809</v>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="Z27" t="n">
+        <v>2090</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Verbod transgenders in leger VS wordt opgeheven</t>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Conflict rond 'Tukkertje Sterre' escaleert</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44221</v>
+        <v>45489</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2882,7 +3408,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2891,38 +3417,46 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>172</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>BUITENLAND; FRONTPAGE</t>
-        </is>
+        <v>626</v>
+      </c>
+      <c r="G28" t="n">
+        <v/>
       </c>
       <c r="H28" t="n">
-        <v>172</v>
+        <v>626</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Gerben Kuitert, Wim Goorhuis</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v/>
+      </c>
+      <c r="L28" t="n">
+        <v/>
+      </c>
+      <c r="M28" t="n">
+        <v/>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Verbod transgenders in leger VS wordt opgeheven</t>
+          <t>Conflict rond 'Tukkertje Sterre' escaleert</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Verbod transgenders in leger VS wordt opgeheven Het Witte Huis zal waarschijnlijk maandag het verbod opheffen voor transgenders om te dienen in het Amerikaanse leger, meldt The Wall Street Journal op basis van anonieme bronnen. Dat verbod werd eerder ingesteld door voormalig president Donald Trump.</t>
+          <t>Conflict rond 'Tukkertje Sterre' escaleert Zorgverlener Ambulante Zorg Twekkelerveld heeft extra veiligheidsmaatregelen genomen bij een instelling voor beschermd wonen in Hengelo. In het pand wonen mensen met een verstandelijke beperking en andere psychische problematiek. De extra bewaking houdt rechtstreeks verband met de bedreiging van 'Tukkertje Sterre', één van de bewoners.</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2930,37 +3464,50 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v/>
+      </c>
+      <c r="S28" t="n">
+        <v/>
+      </c>
+      <c r="T28" t="n">
+        <v/>
+      </c>
+      <c r="U28" t="n">
+        <v/>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:61VF-6J61-DY4K-S2V4-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6CGW-SM91-DY0X-94J1-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Telegraaf 2019-2021 hele sample.XLSX</t>
+          <t>AD 2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y28" t="n">
-        <v>2679</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="Z28" t="n">
+        <v>2223</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Transgender basketballer mag niet bij Australische vrouwen spelen: ‘Ik geef mijn dromen niet op’</t>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Transgender vrouw op bierblikje leidt tot boycot en pistoolsalvo's voor Bud Light</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45034</v>
+        <v>45093</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2969,7 +3516,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2978,11 +3525,15 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>510</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Ten Eerste;Blz. 5</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>250</v>
+        <v>510</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2991,63 +3542,82 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Sportredactie</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>JONATHAN WITTEMAN</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v/>
+      </c>
+      <c r="L29" t="n">
+        <v/>
+      </c>
+      <c r="M29" t="n">
+        <v/>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Transgender basketballer mag niet bij Australische vrouwen spelen: ‘Ik geef mijn dromen niet op’</t>
+          <t>Transgender vrouw op bierblikje leidt tot boycot en pistoolsalvo's voor Bud Light</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Transgender basketballer mag niet bij Australische vrouwen spelen: ‘Ik geef mijn dromen niet op’ Een transgender basketballer uit Australië heeft van de bond in haar land geen toestemming gekregen om in de regionale vrouwencompetitie uit te komen. Het gaat om Lexi Rodgers, die speelt voor Kilsyth Cobras, een club uit de omgeving van Melbourne.</t>
+          <t>Transgender vrouw op bierblikje leidt tot boycot en pistoolsalvo's voor Bud Light Bommeldingen in brouwerijen. Standrechtelijke executies van treetjes bier. Bedreigingen van chauffeurs met het Bud Light-logo op hun vrachtwagens. Sinds in 1773 een stel als Mohawk-indianen uitgedoste revolutionairen 342 kratten Britse thee in de haven van Boston mieterden - de zogeheten 'Boston Tea Party' - heeft een dorstlesser vermoedelijk niet meer tot zoveel beroering geleid onder de Amerikanen als Bud Light.</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v/>
+      </c>
+      <c r="S29" t="n">
+        <v/>
+      </c>
+      <c r="T29" t="n">
+        <v/>
+      </c>
+      <c r="U29" t="n">
+        <v/>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:681T-2SX1-JBHV-K2KD-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:68G8-6501-DYRY-X06D-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>AD 2022-2023 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 201-500.XLSX</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Algemeen Dagblad</t>
-        </is>
-      </c>
-      <c r="Y29" t="n">
-        <v>265</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="Z29" t="n">
+        <v>2342</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>No Headline In Original</t>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Het lichaam is maar een lichaam</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43519</v>
+        <v>44821</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3056,7 +3626,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NRC Handelsblad</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3065,34 +3635,48 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1701</v>
+        <v>1028</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>AMSTERDAM;Blz. 6</t>
+          <t>Boeken en Wetenschap;Blz. 12, 13</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1701</v>
+        <v>1028</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ALEID TRUIJENS</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v/>
+      </c>
+      <c r="L30" t="n">
+        <v/>
+      </c>
+      <c r="M30" t="n">
+        <v/>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Het lichaam is maar een lichaam</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Lezing Spannende cijfers Dinsdagavond organiseert Vereniging Ons Amsterdam de lezing Spannende cijfers! , door Jeroen Slot,  Hoofd Onderzoek bij  Onderzoek, Informatie en Statistiek van de gemeente Amsterdam (OIS). Het gaat goed met Amsterdam; de stad is ongekend populair. Al een decennium lang komen er per jaar 10.000 Amsterdammers bij.  De beroepsbevolking en het aantal banen groeit nog sneller dan de bevolking als geheel. Maar het huidige succes van de stad roept ook vragen op. Hoe ziet de toekomstige stad eruit als de huidige trends van selectieve vestiging en vertrek doorzetten? Blijft de stad betaalbaar en toegankelijk voor brede groepen? Kan de openbare ruimte de groeiende stroom forensen, bezoekers en toeristen wel aan? Dinsdag 26 februari, 20.00 uur, Bibliotheek De Hallen, Hannie Dankbaarpassage 10. www.onsamsterdam.info Homo's, transgenders op het werk</t>
+          <t>Het lichaam is maar een lichaam In een geslaagde bloemlezing wordt opnieuw duidelijk hoe eigenzinnig Andreas Burnier was: als feminist, als activist, als schrijver. Recensie Andreas Burnier In Een tevreden lach, de debuutroman van Andreas Burnier (1931-2002) staat een ontroerende passage over een pubermeisje dat een jongen wil zijn. Ze koopt een bruin pak, wit overhemd, een pijp en een toneelbril. Met die uitdossing, het haar kortgeknipt, denkt ze voor een jongen te kunnen doorgaan. Als dat lukt, is ze bevrijd uit het meisjeslichaam dat haar leven zo beperkt. Ze stapt een biljartcafé binnen en bestelt met schorre stem bier. De mannen in het café lachen haar uit en ontmaskeren haar als een meisje. De vernedering is groot. Alle hoop is vervlogen.</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>NRC Handelsblad</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -3100,37 +3684,50 @@
           <t>Krant</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v/>
+      </c>
+      <c r="S30" t="n">
+        <v/>
+      </c>
+      <c r="T30" t="n">
+        <v/>
+      </c>
+      <c r="U30" t="n">
+        <v/>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5VGP-TTP1-DYMH-R28R-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:66D8-44W1-JC8X-6050-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>NRC 2019-2021 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 1-200.XLSX</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y30" t="n">
-        <v>2816</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="Z30" t="n">
+        <v>3294</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>In verzet tegen woke Man, vrouw, anders? Inclusiviteit verdeelt hoger onderwijs</t>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Dartsters willen geen trans vrouw als teamgenoot en stappen uit Nederlands team</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44713</v>
+        <v>45377</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3139,7 +3736,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3148,38 +3745,48 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>965</v>
+        <v>493</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>BINNENLAND;Blz. 13</t>
+          <t>Ten Eerste;Blz. 2</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>965</v>
+        <v>493</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>DYLAN VAN BEKKUM</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v/>
+      </c>
+      <c r="L31" t="n">
+        <v/>
+      </c>
+      <c r="M31" t="n">
+        <v/>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>In verzet tegen woke Man, vrouw, anders? Inclusiviteit verdeelt hoger onderwijs</t>
+          <t>Dartsters willen geen trans vrouw als teamgenoot en stappen uit Nederlands team</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>In verzet tegen woke Man, vrouw, anders? Inclusiviteit verdeelt hoger onderwijs Man, vrouw, anders? Inclusiviteit verdeelt hoger onderwijs Een hoogoplopend conflict op de Universiteit Maastricht over het gebruik van de term 'vrouw' roept de vraag op  wat de invloed van de woke ideologie is in het hoger onderwijs. ,,Het verzet tegen woke neemt toe." De universiteit wil een 'adempauze'. Gebruiken we de term 'vrouwen' of 'mensen die menstrueren'? Een biologisch feit, dat niet zo lang geleden nog gold als een vanzelfsprekendheid (alleen vrouwen menstrueren), is onder invloed van het wokisme vloeibaar geworden. Volgens deze uit de VS overgewaaide kritische denkrichting bestaan er niet slechts twee geslachten, maar een groot aantal genders. Zo zijn er ook 'transpersonen' die menstrueren: biologische vrouwen die zich man voelen bijvoorbeeld, of vrouwen die in 'transitie' zijn, wat betekent dat zij van geslacht veranderen.</t>
+          <t>Dartsters willen geen trans vrouw als teamgenoot en stappen uit Nederlands team Twee dartsters zijn uit het Nederlandse vrouwenteam gestapt, omdat ze 'zich schamen' dat ze met Noa-Lynn van Leuven een team moesten delen. Van Leuven is trans vrouw en een rijzende ster in het vrouwendarten.</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3187,37 +3794,50 @@
           <t>Krant</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v/>
+      </c>
+      <c r="S31" t="n">
+        <v/>
+      </c>
+      <c r="T31" t="n">
+        <v/>
+      </c>
+      <c r="U31" t="n">
+        <v/>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:65K9-BC81-DY4D-Y4SJ-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6BMX-3T61-JC8X-6021-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 201-500.XLSX</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y31" t="n">
-        <v>1271</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="Z31" t="n">
+        <v>2479</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Als uithangbord van anti-woke strijdt deze conservatieve activist tegen diversiteitsbeleid van corporate Amerika</t>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Homo is nog steeds het meest gebruikte scheldwoord'</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45538</v>
+        <v>43491</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3226,7 +3846,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3235,11 +3855,15 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>930</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+        <v>1547</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>WEEKEND;Blz. 30</t>
+        </is>
+      </c>
       <c r="H32" t="n">
-        <v>930</v>
+        <v>1547</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3248,63 +3872,82 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Thom Canters</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+          <t>Danielle Pinedo foto Merlijn Doomernik</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v/>
+      </c>
+      <c r="L32" t="n">
+        <v/>
+      </c>
+      <c r="M32" t="n">
+        <v/>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Als uithangbord van anti-woke strijdt deze conservatieve activist tegen diversiteitsbeleid van corporate Amerika</t>
+          <t>Homo is nog steeds het meest gebruikte scheldwoord'</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Als uithangbord van anti-woke strijdt deze conservatieve activist tegen diversiteitsbeleid van corporate Amerika Binnen het Amerikaanse bedrijfsleven is voormalig Hollywoodproducent Robby Starbuck een gevreesde naam. Zijn strijd tegen diversiteits- en inclusiebeleid van grote bedrijven vindt namelijk gretig aftrek onder sociaal-conservatieve Amerikanen en leidt tot massale boycots.Een groter succes met een boycot hebben we in onze levens nog niet gezien,  stelt de conservatieve activist Robby Starbuck eind juni met enig gevoel voor overdrijving . Een dag eerder heeft Tractor Supply, naar eigen zeggen de 'grootste winkelketen voor het Amerikaanse platteland', aangekondigd zijn diversiteitsbeleid drastisch te wijzigen.In meerdere berichten voor zijn inmiddels ruim een miljoen volgers op sociale media heeft Starbuck naar eigen zeggen Tractor Supply 'ontmaskerd' als een 'woke' bedrijf. Lhbti-trainingen voor werknemers, Pride versieringen op kantoren, en klimaatactivisme - volgens Starbuck allemaal voorbeelden van de 'gekte' waar de veelal conservatieve clientèle van het bedrijf aan mee zou betalen door er te winkelen. Om die reden roept hij zijn volgelingen op hun onvrede over het diversiteitsbeleid te uiten en het bedrijf te boycotten tot het zijn koers wijzigt.Met succes, zo blijkt. 'We hebben van onze klanten gehoord dat we ze teleurgesteld hebben', verklaart het bedrijf.</t>
+          <t>Homo is nog steeds het meest gebruikte scheldwoord' ABSTRACT Interview Astrid Oosenbrug COC-voorzitter De Nashville-verklaring is een ,,afschuwelijk document", zegt COC-voorzitter Astrid Oosenbrug. Maar het heeft de relatie tussen COC en kerken wel verbeterd. Een paar weken geleden ontmoette Astrid Oosenbrug een oudere homoseksuele man. Hij vertelde dat hij op zijn zeventigste uit de kast was gekomen. Waarom zo laat, wilde zij weten. De man, een christen, had zich door zijn geloof laten weerhouden. Pas nu hij weg was bij zijn vrouw, kon hij zichzelf 'homofiel' noemen. Dat soort verhalen inspireerde oud-PvdA- Kamerlid Oosenbrug om eind vorig jaar voorzitter te worden van het  COC, 's werelds oudste nog bestaande homobelangenorganisatie (in 1946 opgericht, ledental zevenduizend). Het zijn, zegt ze, verhalen van mensen die liefde mislopen omdat ze niet zichzelf durven te zijn. Mensen die sterven met het gevoel dat hun leven niet af is. ,,Dat vind ik zó zonde", zegt Oosenbrug. Zelf belandde ze op haar vierde in een weeshuis. Daarna ging ze van tehuis naar pleeggezin. ,,Ik was vijftien toen ik op mezelf ging wonen. Een aantal  mensen uit die tijd heeft de hand aan zichzelf geslagen. Ze waren niet tot zelfacceptatie in staat. Dat wil ik anderen besparen."</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>NRC.NEXT</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v/>
+      </c>
+      <c r="S32" t="n">
+        <v/>
+      </c>
+      <c r="T32" t="n">
+        <v/>
+      </c>
+      <c r="U32" t="n">
+        <v/>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6CWB-9GW1-JBHV-K0B1-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5V8R-K4Y1-JC5G-11XF-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Volkskrant 2022-2024 einde sample laatste 16.XLSX</t>
+          <t>NRC 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y32" t="n">
-        <v>2576</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="Z32" t="n">
+        <v>2815</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Imane zat diep in de schulden: ‘Ik had zelf nooit geleerd hoe ik met geld moest omgaan’</t>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>De verdwijnende maagden van Albanië Om de dag een cijfer</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44223</v>
+        <v>45238</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3313,7 +3956,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3322,11 +3965,15 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>639</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>1040</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FILM;Blz. 8</t>
+        </is>
+      </c>
       <c r="H33" t="n">
-        <v>639</v>
+        <v>1040</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3335,63 +3982,82 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Ilah Rubio</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>Pieter van Os</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v/>
+      </c>
+      <c r="L33" t="n">
+        <v/>
+      </c>
+      <c r="M33" t="n">
+        <v/>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Imane zat diep in de schulden: ‘Ik had zelf nooit geleerd hoe ik met geld moest omgaan’</t>
+          <t>De verdwijnende maagden van Albanië Om de dag een cijfer</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Imane zat diep in de schulden: ‘Ik had zelf nooit geleerd hoe ik met geld moest omgaan’ Door corona komen steeds meer Haagse jongeren in (financiële) problemen. Het Jongeren Perspectief Fonds (JPF), dat jonge Hagenaars met schulden begeleidt, ziet het aantal jongeren met meervoudige problemen toenemen. ,,Maar het is in deze tijd juist moeilijker om ze aan een baan en onderwijs te helpen.’’ Voor de als jongen geboren Imane begonnen de problemen al op 16-jarige leeftijd, toen zij uit de kast kwam als transvrouw. Haar christelijke familie en strenge Antilliaanse moeder waren op zijn zachtst gezegd niet blij met dit nieuws. Imane werd uit huis gegooid. Vanaf dat moment ging het snel bergafwaarts. Op school ging het slecht en een stabiele woonsituatie ontbrak. Ook maakte ze veel schulden.</t>
+          <t>De verdwijnende maagden van Albanië Om de dag een cijfer ABSTRACT Achtergrond Het gewoonterecht in de bergen van Albanië brengt vrouwen weinig goeds. Op één mogelijkheid na: man worden. Vlak voor haar dood ging een groep Nederlandse reizigers in gesprek met Lali, een van de laatste 'gezworen maagden'. Iedereen noemde haar 'Lali'. Dat is het best te vertalen als 'gozer', of 'gast', al komt het Engelse 'dude' nog dichter bij het Albanees. Vanaf haar zeventiende ging Lali door het leven als man. Dus beter haar hem te noemen, hoewel Lali nooit hormonen heeft geslikt of een geslachtsaanpassende operatie heeft ondergaan. Sterker, Lali was fel gekant tegen die mogelijkheid. De verschillen tussen mannen en vrouwen zijn in Albanië tamelijk geprononceerd, in uiterlijk en gedrag. En Lali oogde een man, in manier van lopen en in woord- en kledingkeuze, altijd met een das om de nek en een baret op het hoofd. De gast rookte onafgebroken en dronk raki met mannen in bars, ongehoord voor een Albanese vrouw.</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v/>
+      </c>
+      <c r="S33" t="n">
+        <v/>
+      </c>
+      <c r="T33" t="n">
+        <v/>
+      </c>
+      <c r="U33" t="n">
+        <v/>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:61VW-K5R1-JBHV-K1V4-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:69K8-D7H1-JCMP-215X-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>AD 2019-2021 hele sample.XLSX</t>
+          <t>NRC 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Algemeen Dagblad</t>
-        </is>
-      </c>
-      <c r="Y33" t="n">
-        <v>680</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="Z33" t="n">
+        <v>1955</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Politieke belofte verslikt zich in debat over trans rechten</t>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Diskwalificatie Klein 'juist besluit , gedrag was onacceptabel'</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44463</v>
+        <v>45435</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3400,7 +4066,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>AD/Algemeen Dagblad</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3409,42 +4075,46 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>934</v>
+        <v>295</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ten Eerste;Blz. 31</t>
+          <t>Landelijk;Blz. 6</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>934</v>
+        <v>295</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>PATRICK VAN IJZENDOORN</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v/>
+      </c>
+      <c r="K34" t="n">
+        <v/>
+      </c>
+      <c r="L34" t="n">
+        <v/>
+      </c>
+      <c r="M34" t="n">
+        <v/>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Politieke belofte verslikt zich in debat over trans rechten</t>
+          <t>Diskwalificatie Klein 'juist besluit , gedrag was onacceptabel'</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Politieke belofte verslikt zich in debat over trans rechten In vier jaar tijd is de liefde van de Labourpartij voor de eens bejubelde Rosie Duffield flink bekoeld. De reden? Haar stellingname in de discussie over transgender vrouwen. Door Rosie Duffield Rosemary Clare Duffield was op 8 juni 2017 de grote heldin van de Britse Labourpartij. Bij de verkiezingen had ze ervoor gezorgd dat Canterbury voor het eerst in honderd jaar een progressieve afgevaardigde had in het Lagerhuis. Ruim vier jaar later is de liefde dusdanig bekoeld, dat ze de komende dagen wegblijft van het partijcongres in Brighton. De reden van haar afwezigheid: de bedreigingen die ze kreeg na het versturen van een tweet met de mededeling dat 'alleen vrouwen baarmoeders hebben'.</t>
+          <t>Diskwalificatie Klein 'juist besluit , gedrag was onacceptabel' Het internationale bestuur van het Eurovisie Songfestival steunt de beslissing om Joost Klein te diskwalificeren. Dat zegt Bakel Walden, voorzitter van de zogenoemde Reference Group, tegen songfestivalwebsite Eurovoix. Deze groep bestaat uit delegatiehoofden, uitvoerend producenten van eerdere edities en songfestivalbaas Martin Österdahl. Het is hun taak het evenement zonder problemen over te dragen aan de volgende organisator. De Eurovision Broadcasting Union (EBU), de organisatie achter het songfestival, zat niet te wachten op de rel rond Joost Klein, die namens Nederland aan het festival deelnam. Er waren immers al spanningen door de omstreden deelname van Israël. Daardoor kwam de boel voor en achter de schermen behoorlijk op scherp te staan. ,,U kunt me geloven dat we graag een nieuwe crisis hadden vermeden'', zegt Walden. ,,We hebben het intensief besproken. De beslissing was de juiste: er was onacceptabel gedrag tegenover iemand van de productie. Als er meer dan duizend mensen veilig samen willen werken, dan moeten er niet alleen duidelijke gedragsregels zijn, maar moeten die ook vooral consequent worden toegepast'', zegt Walden. ,,En dat is wat de verantwoordelijke leden van de EBU hebben gedaan.'' De EBU diskwalificeerde de Nederlandse zanger na een incident achter de schermen. Klein zou een cameravrouw hebben bedreigd. Volgens zijn advocaat heeft hij de camera weggeduwd, maar zich niet schuldig gemaakt aan bedreiging.</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>AD/Algemeen Dagblad</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3452,37 +4122,50 @@
           <t>Krant</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v/>
+      </c>
+      <c r="S34" t="n">
+        <v/>
+      </c>
+      <c r="T34" t="n">
+        <v/>
+      </c>
+      <c r="U34" t="n">
+        <v/>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:63NX-JFF1-DYRY-X4XF-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6C38-BJ91-JC8X-63TV-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
+          <t>AD 2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y34" t="n">
-        <v>1199</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="Z34" t="n">
+        <v>2201</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Transgenderisme is gepolitiseerd en daar heb ik niet om gevraagd</t>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Voor een extreemgeluid heeft de gulle gever best wat over</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45053</v>
+        <v>45374</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -3491,7 +4174,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3500,11 +4183,15 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>876</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>4236</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Zaterdag;Blz. 12, 13, 14, 15</t>
+        </is>
+      </c>
       <c r="H35" t="n">
-        <v>876</v>
+        <v>4236</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3513,63 +4200,82 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Lara Campagne</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>ROBERT VAN DE GRIEND</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v/>
+      </c>
+      <c r="L35" t="n">
+        <v/>
+      </c>
+      <c r="M35" t="n">
+        <v/>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Transgenderisme is gepolitiseerd en daar heb ik niet om gevraagd</t>
+          <t>Voor een extreemgeluid heeft de gulle gever best wat over</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Transgenderisme is gepolitiseerd en daar heb ik niet om gevraagd Empathie met trans personen is mooi, maar emancipatie van deze minderheid is iets dat ze zelf moeten doen, schrijft Lara Campagne. U weet niet half hoe fascinerend het is om de huidige tijdgeest waar te nemen vanuit mijn perspectief als transseksuele vrouw die in de vroege jaren tweeduizend in transitie ging. Lara Campagne is werkzaam als arabiste en schrijft reisverhalen. Al als klein jongetje vertoonde ik overduidelijk meisjesachtig gedrag, zelfs dusdanig dat een leidster op de crèche eens tegen mijn moeder opmerkte dat ik ‘sowieso een homootje zou worden’. Iedere avond smeekte ik mijn moeder of we mijn piemeltje er niet af konden knippen, en ik wilde niets liever dan in alles lijken op en meedoen met de andere meisjes. Het waren niet anderen die mij vertelden dat ik van binnen een meisje was, ik vertelde het hun. Toen ik zes was besloten mijn ouders, na het bij toeval tegenkomen van het boek Hoera, het is een mensje! en een interview bij het programma Kopspijkers met een genderdysfoor jongetje, een inleidend gesprek bij de VU aan te vragen. Jarenlang therapie, bloedonderzoek en medische analyse volgden, en toen ik twaalf was kreeg ik groen licht om aan de puberteitsremmers te gaan en op mijn zestiende aan de vrouwelijke hormonen. Een paar maanden na mijn achttiende verjaardag werd ik geopereerd, en sindsdien ga ik als een normale vrouw door het leven.</t>
+          <t>Voor een extreemgeluid heeft de gulle gever best wat over Donatieplatform Backme is in korte tijd een verzamelplaats geworden voor sympathisanten van (radicaal-)rechts en verspreiders van desinformatie. Gebruikers wordt inhoudelijk amper iets in de weg gelegd. Backme Toen Raisa Blommestijn twee maanden geleden met slaande deuren vertrok als presentator bij omroep Ongehoord Nederland, naar eigen zeggen omdat ze van haar werkgever een socialemediaverbod had opgelegd gekregen, hoefden haar fans niet lang te wanhopen. In een bericht op X liet Blommestijn, die in korte tijd een aanzienlijke schare bewonderaars had weten te vergaren met onder meer het verspreiden van complottheorieën en het gebruik van het n-woord in het programma Ongehoord nieuws, direct weten dat ze weigerde haar 'ziel' te verkopen en zou volharden in haar 'strijd voor het vrije woord'.</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Web Publication</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v/>
+      </c>
+      <c r="S35" t="n">
+        <v/>
+      </c>
+      <c r="T35" t="n">
+        <v/>
+      </c>
+      <c r="U35" t="n">
+        <v/>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:685W-WC91-DY4K-80CC-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6BM8-6BS1-DYRY-X02V-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>NRC 2022-2024 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 201-500.XLSX</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y35" t="n">
-        <v>1882</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="Z35" t="n">
+        <v>2477</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Ik kan die hele transgendertoestand nooit echt achter me laten, en dat vind ik jammer</t>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Ook personage Elliott Page wordt transgender</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45250</v>
+        <v>44650</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -3578,7 +4284,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>De Telegraaf.nl</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3587,38 +4293,46 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>669</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>323</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ENTERTAINMENT; STERREN; ENTERTAINMENT</t>
+        </is>
+      </c>
       <c r="H36" t="n">
-        <v>669</v>
+        <v>323</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Thomas Van Der Meer</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v/>
+      </c>
+      <c r="K36" t="n">
+        <v/>
+      </c>
+      <c r="L36" t="n">
+        <v/>
+      </c>
+      <c r="M36" t="n">
+        <v/>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Ik kan die hele transgendertoestand nooit echt achter me laten, en dat vind ik jammer</t>
+          <t>Ook personage Elliott Page wordt transgender</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Ik kan die hele transgendertoestand nooit echt achter me laten, en dat vind ik jammer Telkens als ik word geïnterviewd over mijn transgenderachtergrond, denk ik: dit was de laatste keer. Nu heb ik er geen zin meer in. Er zijn een heleboel redenen om wél geïnterviewd te willen worden. Bijvoorbeeld omdat ik de journalist of schrijver graag mag of omdat ik in zo’n interview reclame kan maken voor mijn boek. Ook moet ik als lid van de lhbti-gemeenschap af en toe iets bijdragen, vind ik. Dat is nog steeds nodig. ‘We denken dat emancipatie een cadeau is dat we altijd mogen houden, maar dat is niet zo’, zei Erwin Olaf in een documentaire over zijn leven. ‘Het moet beschermd en verdedigd worden.’</t>
+          <t>Ook personage Elliott Page wordt transgender Het personage dat Elliott Page in The Umbrella Academy  speelt, wordt in het derde seizoen van de Netflix -serie een transgender-personage. Page speelde in de eerste tweede seizoenen de rol van cisgender vrouw Vanya Hargreeves, maar in het aankomende seizoen verandert het personage naar Viktor Hargreeves en zullen de voornaamwoorden hij/hem/zijn gebruikt worden.</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>De Telegraaf.nl</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3626,37 +4340,50 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v/>
+      </c>
+      <c r="S36" t="n">
+        <v/>
+      </c>
+      <c r="T36" t="n">
+        <v/>
+      </c>
+      <c r="U36" t="n">
+        <v/>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:69NW-VD61-JBHV-K4WR-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:653X-YVW1-DY4K-S517-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Volkskrant 2022-2024 201-500.XLSX</t>
+          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y36" t="n">
-        <v>2436</v>
+          <t>Telegraaf</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="Z36" t="n">
+        <v>1242</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Hij noemde zich ‘een zwarte nazi’ en wil nu gouverneur van North Carolina worden</t>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>UIT IN</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45558</v>
+        <v>43540</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -3665,7 +4392,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3674,11 +4401,15 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>605</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+        <v>1820</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Magazine Rubrieken;Blz. 68, 69</t>
+        </is>
+      </c>
       <c r="H37" t="n">
-        <v>605</v>
+        <v>1820</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3687,63 +4418,82 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Emilie van Outeren</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+          <t>BOR BEEKMAN, RIJK VAN DEN BROEK, ROBERT VAN GIJSSEL, MARK MOORMAN, RUTGER PONTZEN, JUUL VAN STOKKOM, HERIEN WENSINK</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v/>
+      </c>
+      <c r="L37" t="n">
+        <v/>
+      </c>
+      <c r="M37" t="n">
+        <v/>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Hij noemde zich ‘een zwarte nazi’ en wil nu gouverneur van North Carolina worden</t>
+          <t>UIT IN</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Hij noemde zich ‘een zwarte nazi’ en wil nu gouverneur van North Carolina worden De Republikeinse gouverneurskandidaat in North Carolina grossiert in extreme taal en deed ranzige uitspraken op pornofora. Dat kan ook voor presidentskandidaat Trump een probleem worden. Kiezers in de cruciale staat North Carolina weten sinds kort niet alleen dat de Republikeinse kandidaat voor hun gouverneurschap de rechten van vrouwen en transgender personen wil terugdraaien, maar ook dat beide hem opwinden. Mark Robinson (56) kwam afgelopen week – opnieuw – in opspraak toen CNN uitspraken aan het licht bracht die hij deed in fora op een pornosite. Daar besprak hij zijn erotische voorkeuren en hoe hij als tiener vrouwen bespiedde. Ook omschreef hij zichzelf, in 2010, als „zwarte nazi” en pleitte hij voor de terugkeer van slavernij. „Ik zou er zeker een paar kopen”, schreef Robinson.</t>
+          <t>UIT IN FILM Nu in de bioscoop De Franse psychodramakoningin Claire Denis levert op 72-jarige leeftijd haar hoogst originele Engelstalige debuut, met Robert Pattinson als eenzame crimineel/astronaut met baby in een uit de hand gelopen ruimtevaartonderzoek naar zwarte gaten. High Life is zowel een fijnbesnaard vader-dochterdrama als een verrukkelijk verwrongen zoektocht naar de essentie van seksualiteit, voortplanting en, zoals dat hoort en mag in dit type filosofische sciencefiction, de zin van het bestaan. Nu in de bioscoop In het rijke Westen heet het internetfraude, in Ghana is deze vorm van oplichting eerder een creatieve bezigheid voor verder werkloze jongeren. In de documentaire Sakawa van Ben Asamoah, een jonge Belgische filmer met Ghanese roots, zien we ervaren en beginnende criminelen ('Hoeveel zal ik vragen? '50 dollar' 'Zo veel?') die hun rijke cliënten in Engeland of Amerika proberen over te halen geld te storten voor 'leuke meisjes'. Jongens die een hoge stem kunnen opzetten bellen zelfs uitgebreid met hun cliënten, die hen maar al te graag geloven. LAATSTE KANS</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Web Publication</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v/>
+      </c>
+      <c r="S37" t="n">
+        <v/>
+      </c>
+      <c r="T37" t="n">
+        <v/>
+      </c>
+      <c r="U37" t="n">
+        <v/>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6D1K-TDM1-DY4K-81DM-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5VN5-K5M1-JC8X-61G4-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>NRC 2022-2024 hele sample.XLSX</t>
+          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y37" t="n">
-        <v>2096</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="Z37" t="n">
+        <v>887</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>’Ik ga naar de Pride om mijn kleinkinderen te steunen’ VROUW Glossy</t>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Verruiming Transgenderwet stuit opeens op diverse bezwaren</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45108</v>
+        <v>44831</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -3752,7 +4502,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>AD/Algemeen Dagblad</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3761,15 +4511,15 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>797</v>
+        <v>913</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>VROUW; GLOSSY; VROUW</t>
+          <t>Landelijk;Blz. 5</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>797</v>
+        <v>913</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3778,63 +4528,82 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Eline Doldersum</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+          <t>ELLEN VAN GAALENNIELS KLAASSEN</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v/>
+      </c>
+      <c r="L38" t="n">
+        <v/>
+      </c>
+      <c r="M38" t="n">
+        <v/>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>’Ik ga naar de Pride om mijn kleinkinderen te steunen’ VROUW Glossy</t>
+          <t>Verruiming Transgenderwet stuit opeens op diverse bezwaren</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>’Ik ga naar de Pride om mijn kleinkinderen te steunen’ VROUW Glossy Barbara (51) is moeder van vier kinderen, van wie twee transgender zijn en één non-binair. Haar moeder Tineke (75) vertelt over de impact van het geoordeel, maar ook over haar onvoorwaardelijke liefde voor kleinkinderen Tom, Faye en Ace. Tineke (75): „Zoals Barbara haar kinderen opvoedt, zo heb ik haar ook opgevoed. Het geluk van het kind staat áltijd voorop. Wie of wat ze ook zijn. Ik vind het heel mooi dat dat ook de boodschap is die Barbara haar kinderen meegeeft. Al is dat niet altijd even makkelijk.</t>
+          <t>Verruiming Transgenderwet stuit opeens op diverse bezwaren Onder een flink aantal Tweede Kamerleden heerst ongemak over de wetswijziging die geslachtsverandering in het paspoort makkelijker maakt. Een politieke meerderheid voor verruiming van de transgenderregels is uiterst onzeker. Tweede Kamer Roep om meer onderzoek na spookverhalen en kritiek op 'aanzuigende werking' Met een aanpassing van de Transgenderwet denkt het kabinet een belangrijke horde weg te kunnen nemen voor jongeren en volwassenen die zelf hun geslacht in hun paspoort willen wijzigen. Als dat doorgaat, kan iedere 16-plusser straks bij de gemeente aangeven man of vrouw te zijn. Nu is voor de geslachtsverandering in het paspoort nog een aparte verklaring nodig van de arts.</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>AD/Algemeen Dagblad</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v/>
+      </c>
+      <c r="S38" t="n">
+        <v/>
+      </c>
+      <c r="T38" t="n">
+        <v/>
+      </c>
+      <c r="U38" t="n">
+        <v/>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:68KM-G1P1-JBNJ-205S-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:66GF-YJM1-JC8X-6187-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
+          <t>AD 2022-2023 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y38" t="n">
-        <v>1451</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="Z38" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Doorbitch</t>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Gedenkdag: ‘We eren de mensen die vermoord zijn puur omdat ze transgender zijn’</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43752</v>
+        <v>43790</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3843,7 +4612,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3852,15 +4621,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>509</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>V Opening;Blz. 2</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="G39" t="n">
+        <v/>
       </c>
       <c r="H39" t="n">
-        <v>509</v>
+        <v>26</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3869,63 +4636,82 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>HARO KRAAK</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+          <t>Video: Perry Hokke</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v/>
+      </c>
+      <c r="L39" t="n">
+        <v/>
+      </c>
+      <c r="M39" t="n">
+        <v/>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Doorbitch</t>
+          <t>Gedenkdag: ‘We eren de mensen die vermoord zijn puur omdat ze transgender zijn’</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Doorbitch Een mooie editie van 'Tegenlicht' waarin één cruciale kanttekening ontbrak: de creativiteit van de appende mens. Haro Kraak Tv-recensie Ergens in de komende weken zal uw smartphone een update uitvoeren, waarna een pakket van 59 nieuwe emoji zich aan u zal openbaren. U kunt dan - eindelijk, mogen we wel zeggen - een appje sturen met een gapend gezichtje, een persoon in een rolstoel, een stinkdier, een geleidehond, een oester met een parel, een tuktuk, een bijl en een pleister.</t>
+          <t>Gedenkdag: ‘We eren de mensen die vermoord zijn puur omdat ze transgender zijn’ Transgenders die slachtoffer zijn geworden van mishandeling en bedreiging werden gisteren tijdens een speciale gedenkdag bij het COC in Den Haag herdacht.</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v/>
+      </c>
+      <c r="S39" t="n">
+        <v/>
+      </c>
+      <c r="T39" t="n">
+        <v/>
+      </c>
+      <c r="U39" t="n">
+        <v/>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5X89-8VS1-DYRY-X3YW-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5XJK-W291-DY0X-90GG-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
+          <t>AD 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y39" t="n">
-        <v>954</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="Z39" t="n">
+        <v>512</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Een vrouwelijk gezicht: noodzaak of luxe? Transgender naar rechter om vergoeding af te dwingen</t>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Algerijnse bokser Imane Khelif boekt binnen 45 seconden overwinning tegen Italiaanse tegenstander</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44280</v>
+        <v>45505</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3934,7 +4720,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3943,15 +4729,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>400</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>FINANCIEEL;Blz. 28</t>
-        </is>
+        <v>327</v>
+      </c>
+      <c r="G40" t="n">
+        <v/>
       </c>
       <c r="H40" t="n">
-        <v>400</v>
+        <v>327</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -3960,63 +4744,82 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Berrit de Lange</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+          <t>Dorine Booij</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v/>
+      </c>
+      <c r="L40" t="n">
+        <v/>
+      </c>
+      <c r="M40" t="n">
+        <v/>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Een vrouwelijk gezicht: noodzaak of luxe? Transgender naar rechter om vergoeding af te dwingen</t>
+          <t>Algerijnse bokser Imane Khelif boekt binnen 45 seconden overwinning tegen Italiaanse tegenstander</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Een vrouwelijk gezicht: noodzaak of luxe? Transgender naar rechter om vergoeding af te dwingen Transgender naar rechter om vergoeding af te dwingen door  Berrit de Lange Amsterdam -  Mannen die als vrouw door het leven willen gaan en andersom krijgen de behandelingen die nodig zijn voor geslachtsverandering in principe vergoed. Of een cosmetische operatie ook noodzakelijk is, is de vraag die donderdag voorligt bij de rechtbank in Amersfoort.</t>
+          <t>Algerijnse bokser Imane Khelif boekt binnen 45 seconden overwinning tegen Italiaanse tegenstander In de lichtste vrouwenklasse boksen (66 kilogram) won de Algerijnse Imane Khelif donderdag na 46 seconden van de Italiaanse Angela Carini. Na twee rake stoten van Khelif stopte Carini om pijn in haar neus. Het was „geen eerlijk gevecht”, beklaagde ze zich toen ze zich terugtrok uit de wedstrijd.Carini zei na de wedstrijd tegen het Italiaanse sportblad La Gazzetta dello Sport dat ze „geen oordeel” wil vellen over de deelname van Khelif aan de competitie. Toch kreeg Carini’s aanvankelijke uitspraak bijval van de Italiaanse premier Georgia Meloni, die het „geen gelijke strijd” noemde. Sporters met „mannelijke genetische kenmerken” zouden volgens de premier niet moeten worden toegelaten tot vrouwencompetities.In aanloop van de wedstrijd ging het al veel over Khelif. Vorig jaar bij het WK werd ze gediskwalificeerd omdat haar testosteronspiegel „te hoog” was voor de vrouwenpoule. Ook de Taiwanese Lin Yu-ting, uit dezelfde gewichtsklasse, mocht toen niet meedoen. Een hoge natuurlijke testosteronspiegel komt vaker voor bij vrouwen, bijvoorbeeld in het geval van genetische afwijkingen. De boksers ontvingen met name kritiek van mensen die transgendervrouwen willen weren uit de competitie – al zijn geen van de twee boksers transgender.</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>De Telegraaf</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
+          <t>Web Publication</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v/>
+      </c>
+      <c r="S40" t="n">
+        <v/>
+      </c>
+      <c r="T40" t="n">
+        <v/>
+      </c>
+      <c r="U40" t="n">
+        <v/>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6290-4BW1-JBNC-704M-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6CM9-6CC1-DY4K-8149-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>Telegraaf 2019-2021 hele sample.XLSX</t>
+          <t>NRC 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y40" t="n">
-        <v>2695</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="Z40" t="n">
+        <v>2075</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Transgender sekswerker Briza lag dood in hotelkamer na ruzie met vriend: ‘Ze was gek, maar lief’</t>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Oorlogstijd</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44570</v>
+        <v>45234</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4025,7 +4828,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4034,11 +4837,15 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>586</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>468</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Boeken en Wetenschap;Blz. 16</t>
+        </is>
+      </c>
       <c r="H41" t="n">
-        <v>586</v>
+        <v>468</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4047,63 +4854,82 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Michiel van Gruijthuijsen</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+          <t>PATRICK VAN IJZENDOORN</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v/>
+      </c>
+      <c r="L41" t="n">
+        <v/>
+      </c>
+      <c r="M41" t="n">
+        <v/>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Transgender sekswerker Briza lag dood in hotelkamer na ruzie met vriend: ‘Ze was gek, maar lief’</t>
+          <t>Oorlogstijd</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Transgender sekswerker Briza lag dood in hotelkamer na ruzie met vriend: ‘Ze was gek, maar lief’ De vrouw die is omgebracht in een kamer van het Van der Valk Hotel in Wassenaar , is de Colombiaanse transgender sekswerker Briza (40). ,,Zij was echt een gek, maar lief persoon.” Volgens bekenden zit haar 32-jarige vriend uit Den Haag vast voor de vermoedelijke betrokkenheid bij haar dood. Hij is afgelopen maandagavond rond elf uur op het terrein van luchthaven Schiphol opgepakt.</t>
+          <t>Oorlogstijd J.K. Rowling gaat het debat ook nu niet uit de weg. De week in boeken 'Dit is J.K. Rowling op haar best. Het roept de pure leesbaarheid van de Harry Potter-boeken in herinnering, maar dan een stuk donkerder. Dit boek heeft me door een zware tijd geholpen.' Deze ronkende woorden over The Running Grave, het jongste boek dat Rowling onder haar schrijversnaam Robert Galbraith heeft gepubliceerd, zijn afkomstig van Stephen King. De Amerikaanse schrijver deelde deze lof met zijn ruim vier miljoen volgers op X, beter bekend als Twitter .</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v/>
+      </c>
+      <c r="S41" t="n">
+        <v/>
+      </c>
+      <c r="T41" t="n">
+        <v/>
+      </c>
+      <c r="U41" t="n">
+        <v/>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:64GW-PWF1-DY0X-91PC-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:69JD-90N1-DYRY-X51H-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>AD 2022-2023 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 201-500.XLSX</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Algemeen Dagblad</t>
-        </is>
-      </c>
-      <c r="Y41" t="n">
-        <v>1</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="Z41" t="n">
+        <v>2426</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Verplaats je in een kind met een transitiewens, voordat je roept dat het willoos een trend volgt</t>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Spaans parlement stemt in met menstruatieverlof, nieuwe genderwet en uitbreiding abortusrecht</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44764</v>
+        <v>44973</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4121,11 +4947,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>869</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>614</v>
+      </c>
+      <c r="G42" t="n">
+        <v/>
+      </c>
       <c r="H42" t="n">
-        <v>869</v>
+        <v>614</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4134,20 +4962,26 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Haro Kraak</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+          <t>Hessel von Piekartz</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v/>
+      </c>
+      <c r="L42" t="n">
+        <v/>
+      </c>
+      <c r="M42" t="n">
+        <v/>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Verplaats je in een kind met een transitiewens, voordat je roept dat het willoos een trend volgt</t>
+          <t>Spaans parlement stemt in met menstruatieverlof, nieuwe genderwet en uitbreiding abortusrecht</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Verplaats je in een kind met een transitiewens, voordat je roept dat het willoos een trend volgt Er is een bekend verhaal over linkshandigen dat de laatste tijd weer opduikt. Dat gaat zo: vroeger, tot in de 20ste eeuw, werden linkshandige kinderen gedwongen om rechtshandig te zijn. Toen dit stopte, was er een sterke toename van linkshandigen. Tot een plateau werd bereikt.</t>
+          <t>Spaans parlement stemt in met menstruatieverlof, nieuwe genderwet en uitbreiding abortusrecht Spanjaarden van 16 jaar en ouder mogen binnenkort zelf bepalen met welk gender ze door het leven gaan en Spanje wordt het eerste land in Europa met menstruatieverlof. Ook breidt de regering het abortusrecht verder uit.</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -4160,18 +4994,26 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v/>
+      </c>
+      <c r="S42" t="n">
+        <v/>
+      </c>
+      <c r="T42" t="n">
+        <v/>
+      </c>
+      <c r="U42" t="n">
+        <v/>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6608-12H1-JBHV-K3FD-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:67JV-SJ91-JBHV-K3R1-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>Volkskrant 2022-2024 1-200.XLSX</t>
+          <t>Volkskrant 2022-2024 201-500.XLSX</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -4179,18 +5021,23 @@
           <t>Volkskrant</t>
         </is>
       </c>
-      <c r="Y42" t="n">
-        <v>3268</v>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="Z42" t="n">
+        <v>2285</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Het kortenummervirus lijkt overal opgeld te doen. Laat muzikanten hun gang gaan</t>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Hoe kom ik van mijn bierbuik af?</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45401</v>
+        <v>44396</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4208,11 +5055,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1618</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+        <v>777</v>
+      </c>
+      <c r="G43" t="n">
+        <v/>
+      </c>
       <c r="H43" t="n">
-        <v>1618</v>
+        <v>777</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4221,20 +5070,26 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Redactie</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+          <t>Maartje Bakker</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v/>
+      </c>
+      <c r="L43" t="n">
+        <v/>
+      </c>
+      <c r="M43" t="n">
+        <v/>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Het kortenummervirus lijkt overal opgeld te doen. Laat muzikanten hun gang gaan</t>
+          <t>Hoe kom ik van mijn bierbuik af?</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Het kortenummervirus lijkt overal opgeld te doen. Laat muzikanten hun gang gaan De lezers over de oorlog in Oekraïne, transgender kinderen, beschaving, een boerderijtje in Groningen , beeldtaal als een krachtig instrument, belastingen, watergebruik, kweekvlees en garnalen. Je hoort het vaker in pretentieuze discussies tussen muzikanten en het is ook steeds meer en vogue in recensies van nieuwe albums: een nummer mag niet langer zijn dan pakweg drie (goddelijke?) minuten, want anders gaat het vervelen. Zo ook recensent Gijsbert Kamer in de krant van vrijdag 19 april over het nieuwe album Dark Matter van Pearl Jam . Het nummer Upper Hand , aldus Kamer, ‘heeft epische kwaliteiten, al had het lange intro er wel af gemogen’ en ‘ Wreckage was nog overtuigender geweest als het geen vijf maar drie minuten had geduurd’. Tuurlijk, het is maar een recensie van een willekeurige muziekrecensent die recht heeft op zijn eigen mening, maar het kortenummervirus lijkt overal opgeld te doen. Het waart rond in opnamestudio’s, tv-optredens, oefenhonken, kroegen en swingavonden. Gelukkig zijn er ook producers die muzikanten hun gang laten gaan en luisteraars laten wegdromen in eeuwigdurende en repetitieve soundscapes.</t>
+          <t>Hoe kom ik van mijn bierbuik af? Abdominale obesitas, Buikspieroefeningen, Cortisol... Een klein ABC van het ontstaan van de bierbuik: Waarom krijgen mannen een bierbuik? Waarom zien we zelden vrouwen met een bierbuik? En hoe zit het dan met de bierbuiken van transgender personen? Alle geheimen van de bierbuik ontsluierd, doe er uw voordeel mee!</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4247,18 +5102,26 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v/>
+      </c>
+      <c r="S43" t="n">
+        <v/>
+      </c>
+      <c r="T43" t="n">
+        <v/>
+      </c>
+      <c r="U43" t="n">
+        <v/>
+      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6BV3-F5D1-DY0X-915F-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:635T-TDG1-JBHV-K27C-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Volkskrant 2022-2024 201-500.XLSX</t>
+          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -4266,18 +5129,23 @@
           <t>Volkskrant</t>
         </is>
       </c>
-      <c r="Y43" t="n">
-        <v>2504</v>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="Z43" t="n">
+        <v>1160</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Documentaire Seahorse NPO 3, 22.05-23.30u.</t>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>De boycot van Róisín Murphy lijkt een cynisch verdienmodel te worden</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44070</v>
+        <v>45190</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -4286,7 +5154,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NRC Handelsblad</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4295,76 +5163,97 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>93</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>DE GIDS;Blz. 30</t>
-        </is>
+        <v>644</v>
+      </c>
+      <c r="G44" t="n">
+        <v/>
       </c>
       <c r="H44" t="n">
-        <v>93</v>
+        <v>644</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Robert van Gijssel</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v/>
+      </c>
+      <c r="L44" t="n">
+        <v/>
+      </c>
+      <c r="M44" t="n">
+        <v/>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Documentaire Seahorse NPO 3, 22.05-23.30u.</t>
+          <t>De boycot van Róisín Murphy lijkt een cynisch verdienmodel te worden</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Documentaire Seahorse NPO 3, 22.05-23.30u. De Brit Freddy (30) is een homoseksuele transgenderman die graag een gezin wil. Hij is echter niet voorbereid op de lichamelijke en emotionele realiteit van een zwangerschap. Wat voor hem goed voelt, is voor anderen confronterend. Vechtend tegen geweld richting transgenders wordt hij geconfronteerd met zijn naïviteit. Seahorse is een van de meest ontroerende documentaires van het jaar: regisseur Jeanie Finlay weet op een integere manier de frustraties en het doorzettingsvermogen van de transgenderman voor een groot publiek invoelbaar te maken. Link naar PDF</t>
+          <t>De boycot van Róisín Murphy lijkt een cynisch verdienmodel te worden Wekelijks neemt Bor Beekman, Robert van Gijssel, Joris Henquet, Merlijn Kerkhof, Anna van Leeuwen of Herien Wensink stelling in de wereld van film, ­muziek, theater of beeldende kunst.Róisín Murphy is geen specialist op het gebied van transgenderzaken. Zij heeft ook geen farmaceutische achtergrond en werkt niet in een genderkliniek. Nee hoor: Róisín Murphy is een popzangeres. En een goede ook, met fans en volgers over de hele wereld.Die volgers begrepen Murphy vorige maand niet zo goed, toen zij onverhoeds toesloeg met een visie op de behandelingsmogelijkheden van jonge transgender personen.</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>NRC Handelsblad</t>
+          <t>De Volkskrant.nl</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v/>
+      </c>
+      <c r="S44" t="n">
+        <v/>
+      </c>
+      <c r="T44" t="n">
+        <v/>
+      </c>
+      <c r="U44" t="n">
+        <v/>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:60P8-1161-JC5G-119V-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6973-VDS1-DY0X-94TM-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>NRC 2019-2021 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 201-500.XLSX</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y44" t="n">
-        <v>2904</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="Z44" t="n">
+        <v>2406</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Campagnevideo's FvD over Spreidingswet en transgender personen zijn strafbaar, oordeelt OM</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Weg met het verschil tussen hij en zij</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45569</v>
+        <v>44551</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -4373,7 +5262,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>NRC Handelsblad</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4382,11 +5271,15 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>405</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+        <v>585</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>OPINIE;Blz. 18</t>
+        </is>
+      </c>
       <c r="H45" t="n">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4395,63 +5288,82 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Binnenlandredactie</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+          <t>Marc van Oostendorp</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v/>
+      </c>
+      <c r="L45" t="n">
+        <v/>
+      </c>
+      <c r="M45" t="n">
+        <v/>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Campagnevideo's FvD over Spreidingswet en transgender personen zijn strafbaar, oordeelt OM</t>
+          <t>Weg met het verschil tussen hij en zij</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Campagnevideo's FvD over Spreidingswet en transgender personen zijn strafbaar, oordeelt OM Het Openbaar Ministerie in Amsterdam heeft twee campagnevideo's van Forum voor Democratie (FVD) als strafbaar beoordeeld. Het gaat om een spotje waarin de partij aandacht vraagt voor de gevolgen van de Spreidingswet en een over non-binaire en transgender personen. Tegen beide filmpjes werd aangifte gedaan, waarna het OM een onderzoek is gestart.</t>
+          <t>Weg met het verschil tussen hij en zij ABSTRACT Laten we streven naar minder persoonlijke voornaamwoorden, schrijft Marc van Oostendorp. De schrijfster Sarah Meuleman is veel te voorzichtig, in haar pleidooi om vaker zij te gebruiken in plaats van hij (Hij is de standaard. Waarom?,18/12). Ze wil hij alleen vervangen in zinnen zoals ,,De lezer maakt tijd voor het boek omdat hij daar zin in heeft". Dat zijn zinnen waarin iets algemeens gezegd wordt dat voor zowel mannen als vrouwen geldt. Je kunt je afvragen of we eigenlijk niet toe zijn aan radicaler stappen. Als we toch sleutelen, waarom dan niet meteen gaan voor een definitieve oplossing: weg met het verschil tussen hij en zij</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>NRC Handelsblad</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v/>
+      </c>
+      <c r="S45" t="n">
+        <v/>
+      </c>
+      <c r="T45" t="n">
+        <v/>
+      </c>
+      <c r="U45" t="n">
+        <v/>
+      </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6D3X-PM61-JBHV-K17W-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:64BV-4X51-F03R-S15F-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>AD 2024 hele sample.XLSX</t>
+          <t>NRC 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Algemeen Dagblad</t>
-        </is>
-      </c>
-      <c r="Y45" t="n">
-        <v>2249</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="Z45" t="n">
+        <v>3163</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Bang dat ik er niet ben om hen te verplegen als ze in een lhbti-vrije zone corona krijgen, zijn mensen niet</t>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Baard, borsthaar, babybuik: zo maak je een reis naar je gender</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44186</v>
+        <v>45223</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -4460,7 +5372,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4469,11 +5381,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>653</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+        <v>617</v>
+      </c>
+      <c r="G46" t="n">
+        <v/>
+      </c>
       <c r="H46" t="n">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4482,63 +5396,82 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Thomas van der Meer</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+          <t>Rinskje Koelewijn</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v/>
+      </c>
+      <c r="L46" t="n">
+        <v/>
+      </c>
+      <c r="M46" t="n">
+        <v/>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Bang dat ik er niet ben om hen te verplegen als ze in een lhbti-vrije zone corona krijgen, zijn mensen niet</t>
+          <t>Baard, borsthaar, babybuik: zo maak je een reis naar je gender</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Bang dat ik er niet ben om hen te verplegen als ze in een lhbti-vrije zone corona krijgen, zijn mensen niet Waarom word ik door een man uitgekleed?’, vraagt mevrouw ­Wissink (94). ‘Wie ben jij?’ Mevrouw Wissink wil niet geholpen worden en al helemaal niet door een man. Na zware onderhande­lingen heb ik haar zonet uit bed ­gekregen, maar dat is ze allemaal alweer vergeten. ‘Ben ik in een ziekenhuis? Heeft mijn dochter me hier naartoe gebracht?’ Ze aarzelt. ‘Ik heb een dochter, toch?’ Ik hurk maar weer bij haar neer en begin opnieuw, totdat ze akkoord gaat met een douchebeurt. Onder de douche trekt alzheimer een heel ander register open. In haar blootje zit ze te schudden van het lachen op de douchestoel. ‘Ik word door een man gewassen’, giert ze. Dat ik bijna helemaal in plastic ben gehuld, vindt ze ook heel grappig. ‘Alsof ik tbc heb!’ Ze slaat proestend haar hand voor haar mond en begint daarna keihard en heel lang te hoesten. Rood aangelopen kijkt ze me verschrikt aan. ‘Heb ik tbc?’ ‘U heeft corona.’ ‘Gelukkig.’ Even later zit mevrouw Wissink schoon en droog in haar stoel. ‘Wat een kleine priegelknoopjes’, zegt ze, wanneer ik haar blouse dichtmaak. ‘Het treft dat je zulke kleine handen hebt, voor een man.’ Ik heb kleinere handen dan de meeste andere mannen en dat komt doordat ik transgender ben.</t>
+          <t>Baard, borsthaar, babybuik: zo maak je een reis naar je gender Pieter Omtzigt wilde nog een mannetje van zijn partij naast zich om zijn verkiezingsprogramma op de tv toe te lichten. En Max Moszkowicz voelt zich weer de man nu hij androgel op zijn bovenlichaam smeert. Hoe zeiden we het ook alweer op de kleuterschool? A, B, C, ik doe niet meer mee. Dát gevoel overviel me dinsdagavond. Dan ben je dus een politicus, ga je de hele zomer zitten nadenken of je een partij begint, en zodra je denkt: ‘ik doe het’, zit Mariëlle Tweebeeke van Nieuwsuur klaar om van je te horen hoe en waarom. Voor dat hoe neem je nog eens uitgebreid de tijd, je puzzelt een lijst met kandidaten bij elkaar, en dan mag je met de top-20 daarvan aanschuiven bij Op1 om ze aan de kijker voor te stellen. Vervolgens treuzel je met je verkiezingsprogramma. Je wacht ermee tot ná het eerste verkiezingsdebat – waar je niet aan zou meedoen, maar toen toch maar wel. En toen was het er op dinsdag, en dan moet ik zeker naar Khalid &amp; Sophie kijken om hem te horen vertellen wat erin staat?</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+          <t>Web Publication</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v/>
+      </c>
+      <c r="S46" t="n">
+        <v/>
+      </c>
+      <c r="T46" t="n">
+        <v/>
+      </c>
+      <c r="U46" t="n">
+        <v/>
+      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:61K1-MYG1-JBHV-K001-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:69G6-79H1-JBNH-J16D-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
+          <t>NRC 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y46" t="n">
-        <v>1079</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="Z46" t="n">
+        <v>1948</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mooie foto's krijgen meer likes'</t>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Turner Prize gewonnen door 66-jarige beeldhouwer Veronica Ryan</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43771</v>
+        <v>44754</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -4547,7 +5480,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4556,15 +5489,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2799</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Magazine Reportage;Blz. 32, 33, 34, 35, 36, 37, 38</t>
-        </is>
+        <v>494</v>
+      </c>
+      <c r="G47" t="n">
+        <v/>
       </c>
       <c r="H47" t="n">
-        <v>2799</v>
+        <v>494</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4573,63 +5504,82 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DOORTJE SMITHUIJSEN</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+          <t>Toef Jaeger</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v/>
+      </c>
+      <c r="L47" t="n">
+        <v/>
+      </c>
+      <c r="M47" t="n">
+        <v/>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Mooie foto's krijgen meer likes'</t>
+          <t>Turner Prize gewonnen door 66-jarige beeldhouwer Veronica Ryan</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Mooie foto's krijgen meer likes' Succesvol influencer Jessie Maya gaat vér in het vormgeven van haar imago en lichaam. Online en offline benut ze make-up, cosmetische ingrepen en fotobewerking om er perfect uit te zien. En dat is te volgen op YouTube en Instagram . 'Hallo? Hallo? Zijn er al mensen?' Jessie Bosch tuurt in de camera van haar met zilveren studs beklede iPhone, die ze voor zich op tafel heeft gezet. De tafel is bezaaid met make-up - lipgloss, mascara, oogschaduwpaletten, highlightpoeder - en staat in de hoek van de woonkamer. Het is halfdonker in huis, en stil: het enige licht komt van een grote softboxlamp die Jessies gezicht beschijnt en haar gouden oogschaduw doet glinsteren. 'O', zegt ze dan, opgewekt, 'we zitten al op vijftig man. Hallo allemaal. Voor wie mij niet kent, ik ben Jessie, en ik maak YouTube -video's.'</t>
+          <t>Turner Prize gewonnen door 66-jarige beeldhouwer Veronica Ryan Veronica Ryan is de oudste Turner Prizewinnaar ooit. De jury prijst haar om de manier waarop ze het persoonlijke op een poëtische manier weet vorm te geven. De Turner Prize, de roemruchte Britse beeldende kunstprijs, gaat dit jaar naar Veronica Ryan (1956). Dat werd woensdagavond in een live uitzending op BBC Four bekendgemaakt. De Britse beeldhouwer is de oudste kunstenaar ooit die de Turner Prize ontving. In haar installaties verwerkt ze onder meer familiegeschiedenissen, jeugd en healing in beelden en installaties. De jury prees haar om de manier waarop ze het persoonlijke en het poëtische mengt.</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+          <t>Web Publication</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v/>
+      </c>
+      <c r="S47" t="n">
+        <v/>
+      </c>
+      <c r="T47" t="n">
+        <v/>
+      </c>
+      <c r="U47" t="n">
+        <v/>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5XDD-VMD1-JC8X-6448-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:671R-G8S1-JBNH-J2TP-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
+          <t>NRC 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y47" t="n">
-        <v>961</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="Z47" t="n">
+        <v>1795</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>De transhaat van J.K. Rowling is eeuwig zonde</t>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Paul werd Marlies. ‘Ik hou nog steeds van voetbal, van motoren en van Marian’</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45447</v>
+        <v>44296</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -4638,7 +5588,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4647,11 +5597,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>744</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>1202</v>
+      </c>
+      <c r="G48" t="n">
+        <v/>
+      </c>
       <c r="H48" t="n">
-        <v>744</v>
+        <v>1202</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4660,63 +5612,82 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Eva Peek</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+          <t>Redactie</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v/>
+      </c>
+      <c r="L48" t="n">
+        <v/>
+      </c>
+      <c r="M48" t="n">
+        <v/>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>De transhaat van J.K. Rowling is eeuwig zonde</t>
+          <t>Paul werd Marlies. ‘Ik hou nog steeds van voetbal, van motoren en van Marian’</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>De transhaat van J.K. Rowling is eeuwig zonde J.K. Rowling is transfoob: zowat het enige wat ze nog publiekelijk doet, is via haar X-account haar miljoenen volgers continu angst aanjagen voor trans vrouwen. „Ze is alle schijn van een redelijk standpunt ver voorbij.” Soms vraag ik me af wat het domste is dat ik ooit in het openbaar heb gezegd. Moeilijk kiezen, meestal. Op dit moment is mijn nummer 1 denk ik een opmerking die ik in 2021 maakte over J.K. Rowling. In een NRC -podcast over de invloed van de Harry Potter -boekenreeks, zei ik tussen neus en lippen door dat allemaal activisten beweerden dat Rowling transfoob ‘zou zijn’. Met de ondertoon dat dat zwaar overdreven was. Toen al erg dom. Als ik de moeite had genomen me beter in te lezen, over haar blogpost uit 2020 waarin ze voor het eerst uitgebreid inging op haar ‘genderkritische’ ideeën, had ik beter kunnen weten. En al jaren wordt met de dag duidelijker hoezeer ik ernaast zat. Rowling is transfoob in de meest directe zin van het woord: zowat het enige wat ze nog publiekelijk doet, is via haar X-account haar miljoenen volgers continu angst aanjagen voor trans vrouwen. Wie haar niet online volgt – houd dat vol – heeft het wellicht gemist, maar ze is alle schijn van een redelijk standpunt ver voorbij. We zijn getuige van een haat-obsessie, een fixatie.</t>
+          <t>Paul werd Marlies. ‘Ik hou nog steeds van voetbal, van motoren en van Marian’ Het is precies tien jaar geleden dat Paul tegen zijn echtgenote Marian zei: ,,Zo kan ik niet verder. Ik wil als vrouw leven.” Nu is hij een zij en heet Marlies. Deze maand kwam een boek uit over de moeilijke jaren die achter hen liggen. Marian krijgt daarin nadrukkelijk de ruimte. Marian: ,,Meestal staat de transgender centraal. Marlies vond het belangrijk dat mijn stem gehoord werd, als partner van.” Ze oogt sportief maar toch elegant. Een hoogblonde, halflange coupe. ,,Mijn eigen kleur”, zegt Marlies trots. Ze is zorgvuldig, maar ingetogen opgemaakt. ,,Zo ben ik. Ik hoef niet op te vallen.” Paul de Koster, zoals Marlies in een vorig leven heette, groeide op in een streng katholiek milieu. ,,Over seks werd bij ons thuis niet gesproken.” Laat staan over de wens vrouw te zijn, terwijl je als man geboren bent.</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Web Publication</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v/>
+      </c>
+      <c r="S48" t="n">
+        <v/>
+      </c>
+      <c r="T48" t="n">
+        <v/>
+      </c>
+      <c r="U48" t="n">
+        <v/>
+      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6BR7-TJG1-DY4K-814J-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:62D8-FVX1-JBHV-K192-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>NRC 2022-2024 hele sample.XLSX</t>
+          <t>AD 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y48" t="n">
-        <v>2025</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="Z48" t="n">
+        <v>714</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Gaat ‘woke’ ten koste van universele waarden?</t>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>We vieren Pride, maar wat doet de overheid om lhbti'ers te beschermen?</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45050</v>
+        <v>45506</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -4725,7 +5696,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4734,11 +5705,15 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1869</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+        <v>650</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Opinie;Blz. 20</t>
+        </is>
+      </c>
       <c r="H49" t="n">
-        <v>1869</v>
+        <v>650</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4747,63 +5722,82 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Maarten Doorman</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+          <t>ASTRID OOSENBRUG, PHILIP TIJSMA</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v/>
+      </c>
+      <c r="L49" t="n">
+        <v/>
+      </c>
+      <c r="M49" t="n">
+        <v/>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Gaat ‘woke’ ten koste van universele waarden?</t>
+          <t>We vieren Pride, maar wat doet de overheid om lhbti'ers te beschermen?</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Gaat ‘woke’ ten koste van universele waarden? Door de identiteitspolitiek heeft links traditioneel cruciale uitgangspunten laten varen. Hierdoor speelt het volgens filosoof Susan Neiman en politicoloog Umut Özkirimli extreem-rechts in de kaart. ‘Dit boek,’ zo begint de filosoof Susan Neiman Links is niet woke , ‘is geen oproep tot politieke samenwerking of aanklacht tegen de cancelcultuur.’ Maar wie zich na de laatste bladzijde afvraagt waar het over ging komt toch op die twee punten uit. Want Neiman probeert er als links denker achter te komen waarom vooruitstrevende politiek zo aan overtuigingskracht en saamhorigheid heeft ingeboet. Een belangrijke oorzaak is volgens Neiman dat links door de hedendaagse identiteitspolitiek drie traditioneel cruciale uitgangspunten liet varen. Ten eerste verdween het geloof in universele waarden, ten bate van strijd tegen het leed van specifieke minderheden en de roep om erkenning. Door deze identiteitspolitiek raakte woke links in allerhande twisten verzeild. Neiman noemt die stammenstrijd tribalisme en tekent protest aan tegen het reduceren van mensen tot hun etnische identiteit en hun gender.</t>
+          <t>We vieren Pride, maar wat doet de overheid om lhbti'ers te beschermen? De regenbooggemeenschap ziet haar veiligheid en acceptatie door anderen in rap tempo afnemen. Deze ontwikkeling staat niet op zichzelf. COC Nederland en tien andere organisaties roepen op tot steviger maatregelen. discriminatie Zaterdag is het Pride in Amsterdam. De boodschap van tientallen feestelijke boten op de grachten en honderdduizenden bezoekers langs de kant is glashelder: je mag trots zijn op wie je bent en iedereen moet veilig zichzelf kunnen zijn.</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>NRC.nl</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Web Publication</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v/>
+      </c>
+      <c r="S49" t="n">
+        <v/>
+      </c>
+      <c r="T49" t="n">
+        <v/>
+      </c>
+      <c r="U49" t="n">
+        <v/>
+      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6857-MJK1-JBNH-J27H-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6CMB-4X11-DYRY-X4FV-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>NRC 2022-2024 hele sample.XLSX</t>
+          <t>Volkskrant 2022-2024 201-500.XLSX</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y49" t="n">
-        <v>1881</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="Z49" t="n">
+        <v>2566</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>De mannenmaker ongemakkelijk houterig: chemie Katja en Leo ver te zoeken Recensies De mannenmaker &amp; Emilia Pérez</t>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Transgenderstel verlaat flat in Heerlen na pesterijen en mishandeling</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45582</v>
+        <v>43677</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -4812,7 +5806,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4821,15 +5815,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>572</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT; FILM; FRONTPAGE; ENTERTAINMENT</t>
-        </is>
+        <v>619</v>
+      </c>
+      <c r="G50" t="n">
+        <v/>
       </c>
       <c r="H50" t="n">
-        <v>572</v>
+        <v>619</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4838,25 +5830,31 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Fabian Melchers &amp; Robbert Blokland</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+          <t>Frank Benneker</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v/>
+      </c>
+      <c r="L50" t="n">
+        <v/>
+      </c>
+      <c r="M50" t="n">
+        <v/>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>De mannenmaker ongemakkelijk houterig: chemie Katja en Leo ver te zoeken Recensies De mannenmaker &amp; Emilia Pérez</t>
+          <t>Transgenderstel verlaat flat in Heerlen na pesterijen en mishandeling</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>De mannenmaker ongemakkelijk houterig: chemie Katja en Leo ver te zoeken Recensies De mannenmaker &amp; Emilia Pérez Deze week in de bioscoop een nieuwe romkom van eigen bodem met Katja Schuurman, en een transgender-gangster-musical. Één daarvan krijgt vijf sterren... De mannenmaker - Fabian Melchers ✭✭ (2,5 ster)</t>
+          <t>Transgenderstel verlaat flat in Heerlen na pesterijen en mishandeling Een transgenderkoppel uit Heerlen gaat verhuizen, omdat de twee geregeld lastiggevallen en uitgescholden worden door hangjongeren bij hun flat. Een van de vrouwen werd vorig jaar twee keer mishandeld door een van de jongeren. Na bemiddeling door waarnemend burgemeester Emile Roemer en de politie heeft woningcorporatie Weller Kristiana Moretti en Arianne Brink een nieuwe flat aangeboden. Het koppel trekt per augustus in het nieuwe huis.</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>De Telegraaf.nl</t>
+          <t>AD/Algemeen Dagblad.nl</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4864,37 +5862,50 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v/>
+      </c>
+      <c r="S50" t="n">
+        <v/>
+      </c>
+      <c r="T50" t="n">
+        <v/>
+      </c>
+      <c r="U50" t="n">
+        <v/>
+      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6D6P-5B81-DY4K-S1TC-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5WPF-RYF1-DY0X-93S9-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
+          <t>AD 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Telegraaf</t>
-        </is>
-      </c>
-      <c r="Y50" t="n">
-        <v>1621</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="Z50" t="n">
+        <v>473</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Mijn Amerikaanse dromen Philip Huff In New York telt niet wat je kunt maar wie je kent</t>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Bierreus betreurt ’verdeeldheid’ in VS na ophef online reclame transgender</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43596</v>
+        <v>45031</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -4903,7 +5914,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>De Telegraaf.nl</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4912,80 +5923,97 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2113</v>
+        <v>336</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>OPINIE &amp; DEBAT;Blz. 1</t>
+          <t>DFT; FRONTPAGE</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2113</v>
+        <v>336</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Philip Huff</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v/>
+      </c>
+      <c r="K51" t="n">
+        <v/>
+      </c>
+      <c r="L51" t="n">
+        <v/>
+      </c>
+      <c r="M51" t="n">
+        <v/>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Mijn Amerikaanse dromen Philip Huff In New York telt niet wat je kunt maar wie je kent</t>
+          <t>Bierreus betreurt ’verdeeldheid’ in VS na ophef online reclame transgender</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Mijn Amerikaanse dromen Philip Huff In New York telt niet wat je kunt maar wie je kent ABSTRACT Opinie Ongelijkheid In New York krijg je geen kansen op basis van je talent, het gaat erom wie je kent, ondervond Philip Huff. De eerste twee jaar dat ik in New York verbleef, in 2015 en 2016, haatte ik bijna alle mensen om mij heen. Het was de enige keer in mijn leven dat ik mij gemarginaliseerd genoeg voelde dat dit kon gebeuren. Ik vertrok naar New York om voor Nederlandse media over die stad en de Verenigde Staten te schrijven en om te proberen in het Engels te schrijven - en te publiceren. Het voelde niet als hoogmoed, eerder bescheidenheid. Als er in Nederland 35.000 mensen waren die mijn boeken lazen, dan vond ik dat al ongelofelijk - en wie zegt mij dat dat zo zal blijven? Het Nederlandse taalgebied is klein en ik schrijf een keer in de drie, vier jaar een boek en die worden niet allemaal verfilmd. Ik moest  mijn potentiële publiek vergroten als ik wilde blijven schrijven om ervan te kunnen leven. Ik ging dus naar New York om het te 'maken'.  Ik had goed gespaard om het een tijdje vol te houden, vond een literair agent en werkte drie jaar elke dag aan mijn Engelstalige manuscript, over een Europese schrijver in New York . Ik mijnde mijn nieuwe leven uit - en probeerde tegelijkertijd te begrijpen waar ik woonde.</t>
+          <t>Bierreus betreurt ’verdeeldheid’ in VS na ophef online reclame transgender Bierconcern Anheuser-Busch heeft naar eigen zeggen nooit onderdeel willen zijn van een „debat dat Amerikanen verdeelt.” De brouwer van Budweiser-bier reageert daarmee op de ophef die enkele weken geleden ontstond bij conservatieve Amerikanen over de samenwerking met een transgender influencer, Dylan Mulvaney. In zijn statement ging topman Brendan Whitworth niet in op de anti-transbeweging die zich tegen zijn bedrijf keerde en noemde de naam van de onlinebekendheid niet.</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>NRC.NEXT</t>
+          <t>De Telegraaf.nl</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Krant</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+          <t>Web Publicatie</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v/>
+      </c>
+      <c r="S51" t="n">
+        <v/>
+      </c>
+      <c r="T51" t="n">
+        <v/>
+      </c>
+      <c r="U51" t="n">
+        <v/>
+      </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5W34-BX51-DYMH-R3V9-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6816-J8N1-DY4K-S4H3-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>NRC 2019-2021 hele sample.XLSX</t>
+          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y51" t="n">
-        <v>2827</v>
+          <t>Telegraaf</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="Z51" t="n">
+        <v>1393</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Filmfestival schept een nieuw probleem Analyse Wierd Duk</t>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>UCI verbiedt Britse transgender deelname aan nationaal kampioenschap baanwielrennen</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44427</v>
+        <v>44651</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5003,37 +6031,41 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>OPINIE; FRONTPAGE</t>
+          <t>TELESPORT; WIELERSPORT; TELESPORT; FRONTPAGE</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Wierd Duk</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v/>
+      </c>
+      <c r="K52" t="n">
+        <v/>
+      </c>
+      <c r="L52" t="n">
+        <v/>
+      </c>
+      <c r="M52" t="n">
+        <v/>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Filmfestival schept een nieuw probleem Analyse Wierd Duk</t>
+          <t>UCI verbiedt Britse transgender deelname aan nationaal kampioenschap baanwielrennen</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Filmfestival schept een nieuw probleem Analyse Wierd Duk Steeds vaker zoeken ondernemingen, cultuurinstellingen, onderwijsinstituten en overheidsorganisaties aansluiting bij de tijdgeest. Leidend daarin is de wens om ’inclusiever’ en ’diverser’ te worden. Veel instituten constateren op hun werkvloer een gebrek aan ’mensen van kleur’, vrouwen, vertegenwoordigers van religieuze en seksuele minderheden en ook mensen met een beperking. Door actief naar werknemers uit deze categorieën op zoek te gaan hopen zij dat hun personeel een betere afspiegeling zal vormen van de samenleving.</t>
+          <t>UCI verbiedt Britse transgender deelname aan nationaal kampioenschap baanwielrennen De deelname van de transgender wielrenster Emily Bridges aan het Britse kampioenschap op het baanonderdeel omnium is geblokkeerd door de internationale wielrenunie UCI.</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5046,18 +6078,26 @@
           <t>Web Publicatie</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v/>
+      </c>
+      <c r="S52" t="n">
+        <v/>
+      </c>
+      <c r="T52" t="n">
+        <v/>
+      </c>
+      <c r="U52" t="n">
+        <v/>
+      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:63DD-JVT1-JBNJ-21BY-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6545-JBJ1-DY4K-S3MR-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>Telegraaf 2019-2021 hele sample.XLSX</t>
+          <t>Telegraaf 2022-2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
@@ -5065,18 +6105,23 @@
           <t>Telegraaf</t>
         </is>
       </c>
-      <c r="Y52" t="n">
-        <v>2772</v>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="Z52" t="n">
+        <v>1243</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Activisme: niet alleen maar pais en vree onder de regenboog</t>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Saamhorigheid op liedjesfestijn was ver te zoeken</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45500</v>
+        <v>45425</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -5085,7 +6130,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>AD/Algemeen Dagblad</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5094,11 +6139,15 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1145</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+        <v>612</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Landelijk;Blz. 4</t>
+        </is>
+      </c>
       <c r="H53" t="n">
-        <v>1145</v>
+        <v>612</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5107,63 +6156,82 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Haro Kraak</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+          <t>ALEXANDER VAN EENENNAAM</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v/>
+      </c>
+      <c r="L53" t="n">
+        <v/>
+      </c>
+      <c r="M53" t="n">
+        <v/>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Activisme: niet alleen maar pais en vree onder de regenboog</t>
+          <t>Saamhorigheid op liedjesfestijn was ver te zoeken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Activisme: niet alleen maar pais en vree onder de regenboog Bij zowel de Pride Walk als Extinction Rebellion en de Feminist March lopen de spanningen op naarmate het activisme zich verbreedt. Want wie voor lhbti-rechten opkomt, schaart zich niet vanzelfsprekend ook achter een Israëlische of Palestijnse vlag. Wie afgelopen zaterdag op de Pride Walk in Amsterdam rondliep, kon denken dat het geen demonstratie was tegen lhbti-discriminatie, maar tegen heel ander onrecht. 'Say it loud, say it clear: we don't want Israeli here', schreeuwden demonstranten met Palestijnse sjaals en vlaggen naar een twintigtal Joodse deelnemers, van wie sommigen waren uitgedost in een Israëlische vlag of een regenboogvlag met davidster. Ook klonk de leus: 'No pride in genocide'. De Joodse queers brachten daar tegenin: 'There is no pride in exclusion'. In Het Parool stond woensdag een brief van een deelnemer: 'De Pride Walk werd volledig gekaapt door activistische groepen en had niets meer met Pride te maken.'</t>
+          <t>Saamhorigheid op liedjesfestijn was ver te zoeken Met de eerste non-binaire, Zwitserse winnaar uit de geschiedenis, een gediskwalificeerde finalist en een uitgejouwde organisator werd het Eurovisie Songfestival in Malmö om meerdere redenen een historische editie. Nemo Mettler (24, foto) was zaterdag in de nacht te perplex om het te bevatten. Die had niet alleen het Kroatische Baby Lasagna, maar ook de bookmakers verslagen. In tegenstelling tot normaal zaten de wedkantoren er dit jaar naast bij het voorspellen van de winnaar. Nemo won na een record-score bij de vakjury's (365 punten) en de vijfde plaats bij de tv-kijkers (226) en was zo uitzinnig dat die bij het vieren op het podium per ongeluk de glazen trofee én daarbij de rechterduim brak. ,,Ik heb de code gebroken, maar ook de trofee'', maakte Nemo een kwinkslag naar zijn winnende lied, The Code. Dat gaat over de zoektocht naar identiteit, aangezien Nemo zich man noch vrouw voelt. De code werd gekraakt, toen Nemo uitvond non-binair te zijn. Met dat zeer persoonlijke verhaal en een knap gezongen lied dat vooral door de experts in de jury's zeer werd gewaardeerd, won die in Malmö de hoofdprijs. ,,Het liedje bevat mijn leven, nu verandert het mijn leven'', zo vatte Nemo het kernachtig samen.</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>De Volkskrant.nl</t>
+          <t>AD/Algemeen Dagblad</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+          <t>Krant</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v/>
+      </c>
+      <c r="S53" t="n">
+        <v/>
+      </c>
+      <c r="T53" t="n">
+        <v/>
+      </c>
+      <c r="U53" t="n">
+        <v/>
+      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6CK4-XC11-JBHV-K20T-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6C14-MMH1-JC8X-616F-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Volkskrant 2022-2024 201-500.XLSX</t>
+          <t>AD 2024 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y53" t="n">
-        <v>2558</v>
+          <t>Algemeen Dagblad</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="Z53" t="n">
+        <v>2195</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Chantal Arts was voorbeeld voor lhbtq+-gemeenschap: 'Door zichzelf te zijn, liet ze ander geluid horen'</t>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>De witte stadsmarinier tegen racisme van Rotterdam</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45454</v>
+        <v>44266</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -5172,7 +6240,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5181,11 +6249,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>835</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>1954</v>
+      </c>
+      <c r="G54" t="n">
+        <v/>
+      </c>
       <c r="H54" t="n">
-        <v>835</v>
+        <v>1954</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5194,63 +6264,82 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Brenda Stoter</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>Eppo König, Marko de Haan</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v/>
+      </c>
+      <c r="L54" t="n">
+        <v/>
+      </c>
+      <c r="M54" t="n">
+        <v/>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Chantal Arts was voorbeeld voor lhbtq+-gemeenschap: 'Door zichzelf te zijn, liet ze ander geluid horen'</t>
+          <t>De witte stadsmarinier tegen racisme van Rotterdam</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Chantal Arts was voorbeeld voor lhbtq+-gemeenschap: 'Door zichzelf te zijn, liet ze ander geluid horen' Jarenlang struinde Chantal Arts met haar videocamera door de stad. Alle grote en kleine evenementen werden vastgelegd. Het Rotterdams icoon was niet alleen een razende reporter, maar ook een voorbeeld voor de lhbtq-gemeenschap. ,,Ze was een trotse trans vrouw.'' Het zat er al vroeg in: het gevoel in het verkeerde lichaam te zijn geboren én de liefde voor filmen. Haar vader was gek op fotografie en filmen. Daar begon ze mee op 14-jarige leeftijd. ,,Toen ik van hem leerde fotograferen, kwam de amateurfilm op. De camera's waren van die grote koektrommels en daar filmde ik ook mee. In het begin filmde ik bij de manege en ik filmde mijn vriendin als zij Madonna playbackte'', vertelde Chantal aan Stichting Wijkcollectie.</t>
+          <t>De witte stadsmarinier tegen racisme van Rotterdam Marcel Dela Haije is de eerste Rotterdamse stadsmarinier die racisme moet bestrijden. Hij heeft zichzelf nooit gediscrimineerd gevoeld – wel anders vanwege zijn zachte ‘G’. De nieuwe stadsmarinier tegen racisme en discriminatie is een witte heteroman van 51 jaar, met een koophuis en zo’n 25 jaar een vaste baan als ambtenaar. Van zijn „privilege” is Marcel Dela Haije (Heerlen, 1969) zich goed bewust, zegt hij. „Het nadeel is dat je heel lang in deze stad kan rondlopen en denken: nou, het gaat eigenlijk wel goed hier. Er is niet zoveel aan de hand.” Voor zijn nieuwe functie heeft hij ruim honderd mensen gesproken die de pijn van racisme en discriminatie wel kennen. „En ik heb heel veel gelezen, ik ben naar mezelf gaan kijken”, zegt hij. „Dan zie je opeens een heel andere stad.” Rotterdam heeft al sinds 2002 stadsmariniers voor hardnekkige veiligheidsproblemen. Het zijn een soort ‘superambtenaren’ die onder het college van burgemeester en wethouders vallen.</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>AD/Algemeen Dagblad.nl</t>
+          <t>NRC.nl</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Web Publicatie</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+          <t>Web Publication</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v/>
+      </c>
+      <c r="S54" t="n">
+        <v/>
+      </c>
+      <c r="T54" t="n">
+        <v/>
+      </c>
+      <c r="U54" t="n">
+        <v/>
+      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6C7D-4V91-JBHV-K22R-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6264-1GN1-DY4K-81KF-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>AD 2024 hele sample.XLSX</t>
+          <t>NRC 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Algemeen Dagblad</t>
-        </is>
-      </c>
-      <c r="Y54" t="n">
-        <v>2213</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="Z54" t="n">
+        <v>2955</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Reality Hij is een zij: hoe is het nu? NPO 3, 20.25-21.05u.</t>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Bekommer en kwel</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43522</v>
+        <v>44288</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -5259,7 +6348,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NRC Handelsblad</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5268,38 +6357,48 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>85</v>
+        <v>1768</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>DE GIDS;Blz. 10</t>
+          <t>V;Blz. 8, 9</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>85</v>
+        <v>1768</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>Netherlands, Kingdom of the</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>GIDI HEESAKKERS</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v/>
+      </c>
+      <c r="L55" t="n">
+        <v/>
+      </c>
+      <c r="M55" t="n">
+        <v/>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Reality Hij is een zij: hoe is het nu? NPO 3, 20.25-21.05u.</t>
+          <t>Bekommer en kwel</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Reality Hij is een zij: hoe is het nu? NPO 3, 20.25-21.05u. Presentator Jan Kooijman bezoekt deelnemers van afgelopen seizoenen Hij is een zij . Hoe gaat het nu met de transgenderjongeren? Is een transitie ooit klaar? Ryan (25) wilde heel graag een penis.   Drie jaar na de geslachtsveranderende operatie moet hij  door een complicatie toch weer onder het mes. Storm (11) is ondertussen gelukkig als meisje. Ze begint al aardig te puberen. Daarom wil ze zo snel mogelijk beginnen met pubertijdsremmers om jongensachtige kenmerken aan haar lichaam te voorkomen. Link naar PDF</t>
+          <t>Bekommer en kwel Het leven heeft weinig nodig om satire te worden, vindt tv-maker Niek Barendsen (56). In de sketchserie Nieuw zeer maakt hij grappen over modern ongemak: populisme, seksisme, het klimaatdebat, woke zijn. Media - Interview Niek Barendsen Elke dag heeft Niek Barendsen (56) wel een idee voor een nieuwe Nieuw zeer-scène. Hij is de bedenker, schrijver en regisseur van de NTR-sketchserie 'over de hete hangijzers van nu waar veel over gepraat en geschreeuwd wordt, maar te weinig om wordt gelachen'. Net nog, bij het stoplicht, schoot hem een typische Katja-situatie te binnen - ruziezoeker Katja is een van de vele dwarse, nogal intense vrouwen die Ilse Warringa in Nieuw zeer speelt.</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>NRC Handelsblad</t>
+          <t>de Volkskrant</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5307,37 +6406,50 @@
           <t>Krant</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v/>
+      </c>
+      <c r="S55" t="n">
+        <v/>
+      </c>
+      <c r="T55" t="n">
+        <v/>
+      </c>
+      <c r="U55" t="n">
+        <v/>
+      </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:5VHD-4Y31-DYMH-R0V5-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:62BK-NBC1-DYRY-X2DT-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>NRC 2019-2021 hele sample.XLSX</t>
+          <t>Volkskrant 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>NRC</t>
-        </is>
-      </c>
-      <c r="Y55" t="n">
-        <v>2817</v>
+          <t>Volkskrant</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="Z55" t="n">
+        <v>1099</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Strijdend tegen 'diversiteitsgekte' van grote bedrijven</t>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>No Headline In Original</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45539</v>
+        <v>44520</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -5346,7 +6458,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5355,15 +6467,15 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>968</v>
+        <v>762</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ten Eerste;Blz. 27</t>
+          <t>OPINIE &amp; DEBAT;Blz. 10</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>968</v>
+        <v>762</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5372,25 +6484,29 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>THOM CANTERS</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Strijdend tegen 'diversiteitsgekte' van grote bedrijven</t>
-        </is>
+          <t>Bertine van Brakel E.J. van Ginkel Loek Nederstigt</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v/>
+      </c>
+      <c r="L56" t="n">
+        <v/>
+      </c>
+      <c r="M56" t="n">
+        <v/>
+      </c>
+      <c r="N56" t="n">
+        <v/>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Strijdend tegen 'diversiteitsgekte' van grote bedrijven Binnen het Amerikaanse bedrijfsleven is Robby Starbuck een gevreesde naam. Zijn gevecht tegen diversiteits- en inclusiebeleid en de boycots die hij uitroept vindt gretig aftrek bij sociaal-conservatieve Amerikanen. Robby Starbuck Een groter succes met een boycot hebben we in onze levens nog niet gezien, stelt de conservatieve activist Robby Starbuck eind juni met enig gevoel voor overdrijving. Een dag eerder heeft Tractor Supply, naar eigen zeggen de 'grootste winkelketen voor het Amerikaanse platteland', aangekondigd zijn diversiteitsbeleid drastisch te wijzigen.</t>
+          <t>Gender Het artikel over de stand van zaken in de wetenschap over gender is een welkome oase van reflectie binnen het verhitte debat over dit onderwerp (Een gender bevestigd, 13/11). Dat verschillende disciplines vanuit hun eigen expertise een wetenschappelijke invulling aan het fenomeen gender proberen te geven is bemoedigend, al zal geen enkele monodisciplinaire theorie een volledig bevredigend antwoord kunnen geven. Zo verklaart Judith Butler mijn gender, maar niet mijn dysforie. Is dat erg? Nee. Zolang we maar toestaan dat verschillende theorieën naast elkaar mogen bestaan en niet tegen elkaar worden uitgespeeld, iets wat ik op dit moment in het vergiftigde Angelsaksische genderdebat zie gebeuren. Dat debat is contraproductief en biedt tegenstanders handvatten om de hulp aan transgenders te dwarsbomen. Denk hierbij bijvoorbeeld aan het stopzetten van de behandeling met puberteitsremmers in het Verenigd Koninkrijk en Zweden. Wensing-Kruger noemt dat in het artikel terecht een zorgelijke ontwikkeling. Dat moeten we niet laten gebeuren. Ik roep daarom de Nederlandse universiteiten op het voortouw te nemen in het initiëren van een multidisciplinaire samenwerking die op een stimulerende en productieve manier bijdraagt aan een beter begrip en brede maatschappelijke acceptatie van het fenomeen gender. Dat vergt grensoverschrijdend denken - springen over de eigen academische schaduw. Het VUmc heeft al in 1972 laten zien dat het kan. En wat het oplevert. Wie durft? Bertine van Brakel</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>de Volkskrant</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5398,30 +6514,100 @@
           <t>Krant</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v/>
+      </c>
+      <c r="S56" t="n">
+        <v/>
+      </c>
+      <c r="T56" t="n">
+        <v/>
+      </c>
+      <c r="U56" t="n">
+        <v/>
+      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6CWC-6401-DYRY-X3RJ-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
+          <t>https://advance.lexis.com/api/document?collection=news&amp;id=urn:contentItem:6445-DJT1-F03R-S54B-00000-00&amp;context=1519360&amp;sourcegroupingtype=G</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>Volkskrant 2022-2024 einde sample laatste 16.XLSX</t>
+          <t>NRC 2019-2021 hele sample.XLSX</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Volkskrant</t>
-        </is>
-      </c>
-      <c r="Y56" t="n">
-        <v>2577</v>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="Z56" t="n">
+        <v>3135</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A40" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A41" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A42" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A43" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A53" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A56" r:id="rId55"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>